--- a/what/kecelakaan/df_result_lda.xlsx
+++ b/what/kecelakaan/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['rumah', 'meninggal_dunia', 'kondisi', 'berinisial', 'pemerintah', 'anaknya', 'korban', 'jalan', 'meninggal', 'kecelakaan', 'mengalami_luka', 'jakarta', 'nggak', 'mengaku', 'langsung', 'keluarga', 'warga', 'luka', 'jatuh', 'kejadian', 'pria']</t>
+          <t>['mengalami_luka', 'pria', 'langsung', 'jalan', 'anaknya', 'korban', 'nggak', 'jakarta', 'luka', 'rumah', 'kecelakaan', 'kejadian', 'kondisi', 'berinisial', 'keluarga', 'meninggal_dunia', 'jatuh', 'meninggal', 'mengaku', 'pemerintah', 'warga']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -584,7 +584,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rumah', 'luka', 'akibat', 'nggak', 'kesehatan', 'jalan', 'kondisi', 'kecelakaan', 'bernama', 'ditemukan', 'air', 'keselamatan']</t>
+          <t>['luka', 'air', 'rumah', 'ditemukan', 'keselamatan', 'kecelakaan', 'bernama', 'jalan', 'nggak', 'kondisi', 'akibat', 'kesehatan']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -643,7 +643,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['peristiwa', 'pengemudi', 'luka', 'dikemudikan', 'arah', 'akibat', 'jalan', 'mobil', 'kecelakaan', 'polisi', 'mengalami_luka', 'kejadian', 'penumpang', 'mengalami']</t>
+          <t>['luka', 'mobil', 'mengalami_luka', 'polisi', 'arah', 'kecelakaan', 'penumpang', 'pengemudi', 'peristiwa', 'jalan', 'kejadian', 'akibat', 'dikemudikan', 'mengalami']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['peristiwa', 'rumah', 'bandung', 'tewas', 'proyek', 'memiliki', 'penyidik', 'berinisial', 'pelaku', 'polisi', 'mobil', 'terkait', 'jawa', 'aksi', 'langsung']</t>
+          <t>['penyidik', 'mobil', 'rumah', 'bandung', 'polisi', 'proyek', 'memiliki', 'pelaku', 'langsung', 'peristiwa', 'terkait', 'berinisial', 'aksi', 'tewas', 'jawa']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -832,7 +832,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['anaknya', 'pengemudi', 'korban', 'luka', 'sekolah', 'motor', 'keselamatan', 'meninggal_dunia', 'petugas', 'pengendara', 'jalan', 'lintas', 'kecelakaan', 'polisi', 'mengalami_luka', 'terkait', 'kendaraan', 'warga']</t>
+          <t>['luka', 'anaknya', 'mengalami_luka', 'warga', 'polisi', 'keselamatan', 'motor', 'korban', 'kecelakaan', 'sekolah', 'petugas', 'pengendara', 'kendaraan', 'pengemudi', 'jalan', 'terkait', 'meninggal_dunia', 'lintas']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -895,7 +895,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['peristiwa', 'bus', 'bandung', 'korban', 'akibat', 'meninggal_dunia', 'kegiatan', 'sopir', 'menabrak', 'meninggal', 'kecelakaan', 'mobil', 'kejadian', 'warga']</t>
+          <t>['meninggal', 'bus', 'mobil', 'sopir', 'warga', 'kegiatan', 'bandung', 'korban', 'kecelakaan', 'menabrak', 'peristiwa', 'kejadian', 'akibat', 'meninggal_dunia']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -982,7 +982,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['laut', 'tenggelam', 'rumah', 'kapal', 'petugas', 'kegiatan', 'memiliki', 'indonesia', 'uang', 'titik', 'terkait', 'penumpang', 'pria']</t>
+          <t>['laut', 'rumah', 'indonesia', 'kegiatan', 'tenggelam', 'uang', 'titik', 'memiliki', 'penumpang', 'pria', 'petugas', 'terkait', 'kapal']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['insiden', 'luka', 'tewas', 'arah', 'motor', 'sepeda_motor', 'meninggal_dunia', 'jalan', 'kecelakaan', 'bernama', 'mengalami_luka', 'kejadian', 'kanan', 'warga']</t>
+          <t>['luka', 'insiden', 'mengalami_luka', 'warga', 'arah', 'motor', 'kecelakaan', 'bernama', 'jalan', 'sepeda_motor', 'kejadian', 'tewas', 'kanan', 'meninggal_dunia']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['pesawat', 'air', 'memiliki', 'menabrak', 'jakarta', 'kecelakaan', 'kondisi', 'kesehatan', 'keselamatan', 'terkait', 'kanan', 'penumpang', 'mengalami', 'insiden']</t>
+          <t>['kanan', 'insiden', 'kondisi', 'air', 'keselamatan', 'memiliki', 'kecelakaan', 'penumpang', 'menabrak', 'pesawat', 'terkait', 'jakarta', 'kesehatan', 'mengalami']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['langsung', 'peristiwa', 'rumah', 'korban', 'remaja', 'motor', 'meninggal_dunia', 'meninggal', 'kondisi', 'berinisial', 'polisi', 'tewas', 'jawa', 'keluarga']</t>
+          <t>['meninggal', 'rumah', 'remaja', 'polisi', 'korban', 'motor', 'meninggal_dunia', 'langsung', 'peristiwa', 'berinisial', 'kondisi', 'tewas', 'keluarga', 'jawa']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['pengemudi', 'kepolisian', 'proses', 'penyidik', 'menyebut', 'tkp', 'kanan', 'sepeda_motor', 'korban', 'terkait', 'pengendara', 'melintas', 'kecelakaan', 'bernama', 'mobil', 'jakarta', 'tersangka', 'kendaraan', 'sopir', 'mengaku', 'menabrak', 'titik', 'polisi', 'tewas', 'langsung', 'hukum', 'keluarga', 'kejadian', 'jawa', 'penumpang']</t>
+          <t>['penyidik', 'menyebut', 'penumpang', 'pengendara', 'langsung', 'pengemudi', 'melintas', 'mobil', 'tkp', 'korban', 'terkait', 'jakarta', 'proses', 'jawa', 'kanan', 'hukum', 'kecelakaan', 'kendaraan', 'tersangka', 'kejadian', 'keluarga', 'titik', 'mengaku', 'sopir', 'polisi', 'menabrak', 'kepolisian', 'bernama', 'sepeda_motor', 'tewas']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['pengemudi', 'surabaya', 'jalur', 'kanan', 'sepeda_motor', 'peristiwa', 'korban', 'dikemudikan', 'pengendara', 'jalan', 'meninggal', 'melintas', 'kecelakaan', 'truk', 'bernama', 'kendaraan', 'arah', 'menabrak', 'tewas', 'warga', 'motor', 'kejadian']</t>
+          <t>['arah', 'pengendara', 'pengemudi', 'peristiwa', 'jalan', 'melintas', 'korban', 'motor', 'kanan', 'dikemudikan', 'kecelakaan', 'kendaraan', 'kejadian', 'surabaya', 'meninggal', 'warga', 'jalur', 'menabrak', 'bernama', 'sepeda_motor', 'tewas', 'truk']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['pengemudi', 'melaju_arah', 'bus', 'korban', 'dikemudikan', 'akibat', 'kepolisian', 'petugas', 'menabrak', 'jalan', 'kecelakaan', 'mengalami', 'polisi', 'mobil', 'jakarta', 'kanan', 'kendaraan']</t>
+          <t>['bus', 'mobil', 'melaju_arah', 'polisi', 'korban', 'kecelakaan', 'petugas', 'menabrak', 'kepolisian', 'kendaraan', 'jalan', 'pengemudi', 'jakarta', 'akibat', 'kanan', 'dikemudikan', 'mengalami']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['insiden', 'motor', 'kegiatan', 'proses', 'memiliki', 'lintas', 'kecelakaan', 'tertabrak', 'polisi', 'terkait', 'pemerintah', 'warga']</t>
+          <t>['pemerintah', 'tertabrak', 'insiden', 'warga', 'kegiatan', 'polisi', 'kecelakaan', 'motor', 'memiliki', 'terkait', 'proses', 'lintas']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['jalur', 'arah', 'akibat', 'petugas', 'kemacetan', 'menabrak', 'jakarta', 'jalan', 'kecelakaan', 'truk', 'mengalami']</t>
+          <t>['arah', 'kecelakaan', 'petugas', 'menabrak', 'jalan', 'kemacetan', 'jalur', 'jakarta', 'akibat', 'truk', 'mengalami']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['peristiwa', 'korban', 'luka', 'kepolisian', 'petugas', 'kecelakaan', 'pelaku', 'bernama', 'polisi', 'mengalami_luka', 'aksi', 'kendaraan']</t>
+          <t>['luka', 'mengalami_luka', 'polisi', 'korban', 'kecelakaan', 'pelaku', 'petugas', 'kendaraan', 'peristiwa', 'bernama', 'kepolisian', 'aksi']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['pengemudi', 'bus', 'meninggal_dunia', 'tkp', 'korban', 'dikemudikan', 'meninggal', 'kecelakaan', 'truk', 'bernama', 'mengalami_luka', 'kendaraan', 'insiden', 'arah', 'selamat', 'sopir', 'menabrak', 'diduga', 'tewas', 'luka', 'kejadian', 'penumpang']</t>
+          <t>['mengalami_luka', 'arah', 'diduga', 'penumpang', 'pengemudi', 'selamat', 'bus', 'insiden', 'tkp', 'korban', 'dikemudikan', 'luka', 'kecelakaan', 'kendaraan', 'kejadian', 'meninggal_dunia', 'meninggal', 'sopir', 'menabrak', 'bernama', 'tewas', 'truk']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['sepeda_motor', 'kecelakaan', 'menyebut', 'wisata', 'terkait', 'insiden']</t>
+          <t>['menyebut', 'insiden', 'sepeda_motor', 'kecelakaan', 'wisata', 'terkait']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['peristiwa', 'pengemudi', 'korban', 'luka', 'arah', 'petugas', 'terkait', 'kemacetan', 'jakarta', 'jalan', 'lintas', 'kecelakaan', 'mobil', 'truk', 'tkp', 'kendaraan']</t>
+          <t>['luka', 'mobil', 'tkp', 'arah', 'korban', 'kecelakaan', 'petugas', 'kendaraan', 'peristiwa', 'jalan', 'kemacetan', 'terkait', 'pengemudi', 'jakarta', 'truk', 'lintas']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rumah', 'akibat', 'kereta', 'petugas', 'tertabrak', 'sepeda_motor', 'anaknya', 'peristiwa', 'korban', 'pengendara', 'jalan', 'meninggal', 'melintas', 'kecelakaan', 'bernama', 'insiden', 'lokomotif', 'arah', 'diduga', 'tewas', 'warga', 'hukum', 'keluarga', 'motor', 'kejadian']</t>
+          <t>['arah', 'diduga', 'pengendara', 'peristiwa', 'kereta', 'jalan', 'melintas', 'akibat', 'insiden', 'anaknya', 'korban', 'motor', 'hukum', 'rumah', 'kecelakaan', 'lokomotif', 'petugas', 'tertabrak', 'kejadian', 'keluarga', 'meninggal', 'warga', 'bernama', 'sepeda_motor', 'tewas']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rumah', 'korban', 'luka', 'arah', 'akibat', 'kepolisian', 'tewas', 'kejadian', 'proses', 'mengaku', 'menabrak', 'melintas', 'kecelakaan', 'mobil', 'truk', 'mengalami', 'langsung']</t>
+          <t>['luka', 'mengaku', 'mobil', 'rumah', 'arah', 'korban', 'kecelakaan', 'langsung', 'menabrak', 'kepolisian', 'tewas', 'melintas', 'kejadian', 'akibat', 'proses', 'truk', 'mengalami']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['pengemudi', 'melaju_arah', 'akibat', 'meninggal_dunia', 'tkp', 'korban', 'jalan', 'meninggal', 'kecelakaan', 'mobil', 'mengalami_luka', 'kendaraan', 'arah', 'kegiatan', 'menabrak', 'polisi', 'luka', 'pelaku', 'kejadian']</t>
+          <t>['mengalami_luka', 'arah', 'pelaku', 'pengemudi', 'jalan', 'melaju_arah', 'akibat', 'mobil', 'tkp', 'korban', 'luka', 'kecelakaan', 'kendaraan', 'kejadian', 'meninggal_dunia', 'meninggal', 'kegiatan', 'polisi', 'menabrak']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['siti', 'rumah', 'melaju_arah', 'surabaya', 'akibat', 'meninggal_dunia', 'tertabrak', 'kanan', 'mengalami', 'anaknya', 'korban', 'dikemudikan', 'jalan', 'kecelakaan', 'mobil', 'mengalami_luka', 'kendaraan', 'selamat', 'kegiatan', 'lubang', 'saksi', 'jenazah', 'polisi', 'tewas', 'keluarga', 'warga', 'luka', 'motor', 'jam', 'kejadian', 'jawa']</t>
+          <t>['mengalami_luka', 'jam', 'saksi', 'jenazah', 'jalan', 'melaju_arah', 'akibat', 'mobil', 'anaknya', 'korban', 'motor', 'kanan', 'siti', 'jawa', 'dikemudikan', 'luka', 'rumah', 'kecelakaan', 'kendaraan', 'tertabrak', 'kejadian', 'surabaya', 'keluarga', 'meninggal_dunia', 'mengalami', 'kegiatan', 'warga', 'polisi', 'tewas', 'lubang', 'selamat']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['rumah', 'remaja', 'akibat', 'meninggal_dunia', 'proses', 'mengaku', 'meninggal', 'pria', 'kecelakaan', 'pelaku', 'kesehatan', 'keluarga']</t>
+          <t>['meninggal', 'mengaku', 'rumah', 'remaja', 'keluarga', 'kecelakaan', 'pelaku', 'pria', 'proses', 'akibat', 'kesehatan', 'meninggal_dunia']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rumah', 'pengemudi', 'jalur', 'akibat', 'kondisi', 'kanan', 'mengalami', 'peristiwa', 'korban', 'dikemudikan', 'jalan', 'melintas', 'kecelakaan', 'kendaraan', 'insiden', 'arah', 'kejadian', 'menabrak', 'langsung', 'warga', 'kesehatan', 'truk', 'penumpang']</t>
+          <t>['arah', 'penumpang', 'langsung', 'pengemudi', 'peristiwa', 'jalan', 'melintas', 'akibat', 'insiden', 'korban', 'kanan', 'dikemudikan', 'rumah', 'kecelakaan', 'kendaraan', 'kejadian', 'kondisi', 'mengalami', 'warga', 'menabrak', 'jalur', 'kesehatan', 'truk']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['pengemudi', 'melaju_arah', 'petugas', 'kemacetan', 'lintas', 'menyebut', 'tkp', 'kanan', 'mengalami', 'peristiwa', 'korban', 'jalan', 'kecelakaan', 'jakarta', 'kendaraan', 'arah', 'nggak', 'menabrak', 'diduga', 'jam', 'truk']</t>
+          <t>['menyebut', 'jam', 'arah', 'diduga', 'pengemudi', 'peristiwa', 'jalan', 'melaju_arah', 'lintas', 'tkp', 'korban', 'kemacetan', 'nggak', 'jakarta', 'kanan', 'kecelakaan', 'petugas', 'kendaraan', 'mengalami', 'menabrak', 'truk']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['pengemudi', 'jaya', 'jalur', 'akibat', 'petugas', 'lintas', 'tkp', 'mengalami', 'korban', 'jalan', 'kecelakaan', 'truk', 'jakarta', 'kendaraan', 'insiden', 'arah', 'sopir', 'menabrak', 'kejadian']</t>
+          <t>['arah', 'pengemudi', 'jalan', 'akibat', 'lintas', 'insiden', 'tkp', 'korban', 'jakarta', 'jaya', 'kecelakaan', 'petugas', 'kendaraan', 'kejadian', 'mengalami', 'sopir', 'menabrak', 'jalur', 'truk']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['hukum', 'langsung', 'peristiwa', 'korban', 'luka', 'sepeda_motor', 'selamat', 'motor', 'jalan', 'kondisi', 'melintas', 'kecelakaan', 'bernama', 'diduga', 'mengalami_luka', 'warga']</t>
+          <t>['luka', 'selamat', 'mengalami_luka', 'warga', 'sepeda_motor', 'korban', 'kecelakaan', 'diduga', 'motor', 'langsung', 'peristiwa', 'bernama', 'jalan', 'melintas', 'kondisi', 'hukum']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['pengemudi', 'bus', 'akibat', 'meninggal_dunia', 'tkp', 'korban', 'dikemudikan', 'meninggal', 'kecelakaan', 'bernama', 'mengalami_luka', 'kendaraan', 'insiden', 'arah', 'selamat', 'kejadian', 'sopir', 'menabrak', 'polisi', 'tewas', 'luka', 'truk', 'penumpang']</t>
+          <t>['mengalami_luka', 'arah', 'penumpang', 'pengemudi', 'akibat', 'selamat', 'bus', 'insiden', 'tkp', 'korban', 'dikemudikan', 'luka', 'kecelakaan', 'kendaraan', 'kejadian', 'meninggal_dunia', 'meninggal', 'sopir', 'polisi', 'menabrak', 'bernama', 'tewas', 'truk']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['insiden', 'korban', 'luka', 'tewas', 'akibat', 'meninggal_dunia', 'kejadian', 'jalan', 'meninggal', 'pria', 'berinisial', 'kecelakaan', 'mengalami_luka', 'truk', 'warga']</t>
+          <t>['luka', 'meninggal', 'insiden', 'mengalami_luka', 'warga', 'korban', 'kecelakaan', 'meninggal_dunia', 'pria', 'jalan', 'tewas', 'berinisial', 'kejadian', 'akibat', 'truk']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['tkp', 'jawa', 'peristiwa', 'korban', 'luka', 'arah', 'motor', 'akibat', 'petugas', 'kecelakaan', 'bogor', 'mengalami_luka', 'truk', 'kanan', 'sepeda_motor']</t>
+          <t>['luka', 'mengalami_luka', 'tkp', 'arah', 'motor', 'korban', 'truk', 'kecelakaan', 'petugas', 'bogor', 'peristiwa', 'sepeda_motor', 'akibat', 'kanan', 'jawa']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['pengemudi', 'akibat', 'tkp', 'kanan', 'peristiwa', 'korban', 'dikemudikan', 'kecelakaan', 'truk', 'bernama', 'mengalami_luka', 'kendaraan', 'mojokerto', 'arah', 'sopir', 'menabrak', 'jenazah', 'polisi', 'diduga', 'tewas', 'warga', 'luka', 'kejadian']</t>
+          <t>['mengalami_luka', 'jenazah', 'arah', 'diduga', 'pengemudi', 'peristiwa', 'akibat', 'tkp', 'korban', 'kanan', 'dikemudikan', 'luka', 'kecelakaan', 'mojokerto', 'kendaraan', 'kejadian', 'sopir', 'warga', 'polisi', 'menabrak', 'bernama', 'tewas', 'truk']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['peristiwa', 'tersangka', 'korban', 'proses', 'kecelakaan', 'penyidik', 'kondisi', 'pelaku', 'saksi', 'polisi', 'kejadian', 'tkp']</t>
+          <t>['penyidik', 'tkp', 'saksi', 'polisi', 'korban', 'kecelakaan', 'pelaku', 'peristiwa', 'tersangka', 'kejadian', 'kondisi', 'proses']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['peristiwa', 'rumah', 'pengemudi', 'luka', 'arah', 'akibat', 'kepolisian', 'menabrak', 'jalan', 'mobil', 'kecelakaan', 'polisi', 'mengalami', 'mengalami_luka', 'kanan', 'penumpang', 'kendaraan']</t>
+          <t>['luka', 'mobil', 'rumah', 'mengalami_luka', 'polisi', 'arah', 'kecelakaan', 'penumpang', 'menabrak', 'peristiwa', 'kepolisian', 'kendaraan', 'jalan', 'pengemudi', 'akibat', 'kanan', 'mengalami']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['peristiwa', 'korban', 'tewas', 'dikemudikan', 'akibat', 'proses', 'menabrak', 'meninggal', 'kecelakaan', 'tertabrak', 'berinisial', 'polisi', 'diduga', 'mobil', 'tkp', 'kendaraan']</t>
+          <t>['meninggal', 'mobil', 'tkp', 'polisi', 'korban', 'kecelakaan', 'diduga', 'menabrak', 'peristiwa', 'kendaraan', 'tewas', 'tertabrak', 'berinisial', 'akibat', 'proses', 'dikemudikan']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['akibat', 'meninggal_dunia', 'berinisial', 'kanan', 'korban', 'dikemudikan', 'jalan', 'meninggal', 'kecelakaan', 'truk', 'mengalami_luka', 'insiden', 'sopir', 'menabrak', 'saksi', 'tewas', 'warga', 'luka', 'kejadian', 'pria']</t>
+          <t>['mengalami_luka', 'saksi', 'pria', 'jalan', 'akibat', 'insiden', 'korban', 'kanan', 'dikemudikan', 'luka', 'kecelakaan', 'berinisial', 'kejadian', 'meninggal_dunia', 'meninggal', 'sopir', 'warga', 'menabrak', 'tewas', 'truk']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['arah', 'petugas', 'pengendara', 'kecelakaan', 'melintas', 'jakarta', 'kendaraan']</t>
+          <t>['arah', 'kecelakaan', 'pengendara', 'petugas', 'kendaraan', 'melintas', 'jakarta']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['laut', 'siti', 'peristiwa', 'tersangka', 'korban', 'selamat', 'kepolisian', 'akibat', 'proses', 'mengaku', 'polisi', 'bernama', 'tewas', 'jawa', 'keluarga']</t>
+          <t>['selamat', 'mengaku', 'laut', 'siti', 'keluarga', 'polisi', 'korban', 'peristiwa', 'kepolisian', 'bernama', 'tersangka', 'tewas', 'akibat', 'proses', 'jawa']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['pengemudi', 'bus', 'korban', 'dikemudikan', 'arah', 'akibat', 'kejadian', 'sopir', 'proses', 'menabrak', 'lintas', 'kecelakaan', 'mengalami', 'mobil', 'truk', 'kendaraan', 'warga']</t>
+          <t>['bus', 'mobil', 'sopir', 'mengalami', 'warga', 'arah', 'korban', 'kecelakaan', 'menabrak', 'kendaraan', 'pengemudi', 'kejadian', 'akibat', 'proses', 'truk', 'dikemudikan', 'lintas']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['anaknya', 'pengemudi', 'korban', 'luka', 'tewas', 'motor', 'meninggal_dunia', 'petugas', 'pengendara', 'menabrak', 'jalan', 'kecelakaan', 'polisi', 'mengalami_luka', 'truk', 'kendaraan', 'sepeda_motor']</t>
+          <t>['luka', 'anaknya', 'mengalami_luka', 'polisi', 'korban', 'motor', 'kecelakaan', 'meninggal_dunia', 'pengendara', 'petugas', 'menabrak', 'kendaraan', 'jalan', 'pengemudi', 'sepeda_motor', 'tewas', 'truk']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['insiden', 'korban', 'luka', 'kereta', 'petugas', 'terkait', 'proses', 'jakarta', 'saksi', 'tertabrak', 'polisi', 'ditemukan', 'api', 'tewas', 'kejadian', 'langsung']</t>
+          <t>['luka', 'tertabrak', 'insiden', 'ditemukan', 'saksi', 'polisi', 'korban', 'petugas', 'langsung', 'api', 'kereta', 'terkait', 'kejadian', 'jakarta', 'tewas', 'proses']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['pesawat', 'korban', 'selamat', 'pencarian', 'pria', 'jatuh', 'ditemukan', 'api', 'kejadian', 'penumpang', 'helikopter']</t>
+          <t>['jatuh', 'ditemukan', 'korban', 'penumpang', 'pria', 'helikopter', 'pencarian', 'pesawat', 'api', 'kejadian', 'selamat']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['melaju_arah', 'mengalami', 'sepeda_motor', 'korban', 'pengendara', 'jalan', 'kecelakaan', 'bernama', 'truk', 'mobil', 'mengalami_luka', 'arah', 'sopir', 'jenazah', 'titik', 'tewas', 'warga', 'luka', 'kejadian']</t>
+          <t>['mengalami_luka', 'jenazah', 'arah', 'pengendara', 'jalan', 'melaju_arah', 'mobil', 'korban', 'luka', 'kecelakaan', 'kejadian', 'titik', 'mengalami', 'sopir', 'warga', 'bernama', 'sepeda_motor', 'tewas', 'truk']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['peristiwa', 'pengemudi', 'korban', 'luka', 'dikemudikan', 'akibat', 'proses', 'sopir', 'jalan', 'menyebut', 'kecelakaan', 'polisi', 'mengalami', 'mobil', 'jakarta', 'kanan', 'kendaraan']</t>
+          <t>['luka', 'menyebut', 'mobil', 'sopir', 'polisi', 'korban', 'kecelakaan', 'kendaraan', 'peristiwa', 'jalan', 'proses', 'pengemudi', 'jakarta', 'akibat', 'kanan', 'dikemudikan', 'mengalami']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['peristiwa', 'bus', 'korban', 'luka', 'tewas', 'meninggal_dunia', 'meninggal', 'kecelakaan', 'tertabrak', 'mengalami', 'mobil', 'kejadian', 'kendaraan', 'warga']</t>
+          <t>['luka', 'meninggal', 'bus', 'mobil', 'warga', 'korban', 'kecelakaan', 'kendaraan', 'peristiwa', 'tertabrak', 'kejadian', 'tewas', 'meninggal_dunia', 'mengalami']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['laut', 'peristiwa', 'korban', 'arah', 'pencarian', 'kecelakaan', 'saksi', 'jenazah', 'titik', 'ditemukan', 'tewas']</t>
+          <t>['ditemukan', 'laut', 'saksi', 'jenazah', 'korban', 'arah', 'kecelakaan', 'pencarian', 'peristiwa', 'tewas', 'titik']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['hukum', 'pengemudi', 'kepolisian', 'kegiatan', 'sopir', 'mengaku', 'kecelakaan', 'menyebut', 'titik', 'bogor', 'polisi', 'kejadian', 'penumpang', 'langsung']</t>
+          <t>['menyebut', 'mengaku', 'sopir', 'kegiatan', 'polisi', 'kecelakaan', 'penumpang', 'langsung', 'pengemudi', 'kepolisian', 'kejadian', 'bogor', 'titik', 'hukum']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['langsung', 'rumah', 'korban', 'luka', 'ibunya', 'kecelakaan', 'saksi', 'pelaku', 'ditemukan', 'polisi', 'tewas', 'bernama', 'mengalami', 'warga']</t>
+          <t>['luka', 'rumah', 'warga', 'ditemukan', 'saksi', 'polisi', 'korban', 'kecelakaan', 'pelaku', 'langsung', 'bernama', 'ibunya', 'tewas', 'mengalami']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['pengemudi', 'kondisi', 'menyebut', 'air', 'kanan', 'aksi', 'mengalami', 'sepeda_motor', 'korban', 'jalan', 'indonesia', 'kecelakaan', 'bernama', 'mengalami_luka', 'kendaraan', 'insiden', 'nggak', 'kegiatan', 'mengaku', 'langsung', 'warga', 'luka', 'motor', 'jam', 'jatuh', 'kejadian', 'jawa', 'pria']</t>
+          <t>['menyebut', 'mengalami_luka', 'jam', 'indonesia', 'pria', 'langsung', 'pengemudi', 'jalan', 'air', 'insiden', 'korban', 'motor', 'nggak', 'kanan', 'jawa', 'luka', 'kecelakaan', 'kendaraan', 'kejadian', 'kondisi', 'mengalami', 'jatuh', 'mengaku', 'warga', 'kegiatan', 'bernama', 'sepeda_motor', 'aksi']</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['siti', 'meninggal_dunia', 'lintas', 'kondisi', 'tkp', 'korban', 'dikemudikan', 'jalan', 'truk', 'mobil', 'arah', 'sopir', 'menabrak', 'polisi', 'diduga', 'tewas', 'warga', 'keluarga', 'luka', 'kejadian', 'penumpang']</t>
+          <t>['arah', 'diduga', 'penumpang', 'jalan', 'lintas', 'mobil', 'tkp', 'korban', 'siti', 'dikemudikan', 'luka', 'kejadian', 'kondisi', 'keluarga', 'meninggal_dunia', 'sopir', 'warga', 'polisi', 'menabrak', 'tewas', 'truk']</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['anaknya', 'korban', 'luka', 'tewas', 'selamat', 'meninggal', 'kondisi', 'kecelakaan', 'mobil', 'mengalami', 'keluarga']</t>
+          <t>['luka', 'meninggal', 'mobil', 'anaknya', 'korban', 'kecelakaan', 'kondisi', 'tewas', 'keluarga', 'selamat', 'mengalami']</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['peristiwa', 'korban', 'tewas', 'luka', 'selamat', 'jalan', 'lintas', 'polisi', 'mobil', 'kejadian', 'kendaraan']</t>
+          <t>['luka', 'mobil', 'polisi', 'korban', 'kendaraan', 'peristiwa', 'jalan', 'kejadian', 'tewas', 'selamat', 'lintas']</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['kerja', 'tersangka', 'korban', 'mengaku', 'pria', 'menyebut', 'kecelakaan', 'pelaku', 'berinisial', 'polisi', 'mobil', 'kejadian', 'jawa', 'kendaraan', 'warga']</t>
+          <t>['menyebut', 'mengaku', 'mobil', 'tersangka', 'warga', 'polisi', 'korban', 'kecelakaan', 'kerja', 'pelaku', 'pria', 'kendaraan', 'berinisial', 'kejadian', 'jawa']</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['langsung', 'peristiwa', 'nggak', 'pengendara', 'mengaku', 'menabrak', 'kecelakaan', 'jatuh', 'tertabrak', 'mobil', 'mengalami', 'warga']</t>
+          <t>['jatuh', 'mengaku', 'mobil', 'warga', 'kecelakaan', 'pengendara', 'langsung', 'menabrak', 'peristiwa', 'tertabrak', 'nggak', 'mengalami']</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['peristiwa', 'insiden', 'kapal', 'arah', 'akibat', 'petugas', 'menabrak', 'melintas', 'kondisi', 'keselamatan', 'terkait', 'pemerintah']</t>
+          <t>['pemerintah', 'insiden', 'arah', 'keselamatan', 'petugas', 'menabrak', 'peristiwa', 'terkait', 'kondisi', 'akibat', 'kapal', 'melintas']</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['tenggelam', 'perusahaan', 'rumah', 'kapal', 'korban', 'jam', 'keluarga', 'pencarian', 'kondisi', 'jatuh', 'bernama', 'ditemukan', 'diduga', 'tewas', 'kejadian', 'jawa', 'langsung']</t>
+          <t>['jatuh', 'rumah', 'jam', 'ditemukan', 'tenggelam', 'keluarga', 'korban', 'diduga', 'langsung', 'pencarian', 'bernama', 'perusahaan', 'kejadian', 'kondisi', 'tewas', 'kapal', 'jawa']</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['tenggelam', 'peristiwa', 'surabaya', 'korban', 'luka', 'jam', 'petugas', 'proses', 'memiliki', 'lubang', 'indonesia', 'kecelakaan', 'uang', 'air', 'mobil', 'kejadian', 'kendaraan', 'warga']</t>
+          <t>['luka', 'mobil', 'air', 'warga', 'jam', 'indonesia', 'tenggelam', 'uang', 'korban', 'memiliki', 'kecelakaan', 'petugas', 'kendaraan', 'peristiwa', 'surabaya', 'kejadian', 'lubang', 'proses']</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['pengemudi', 'akibat', 'meninggal_dunia', 'petugas', 'lintas', 'tkp', 'mengalami', 'sepeda_motor', 'korban', 'pengendara', 'jalan', 'bernama', 'mobil', 'mengalami_luka', 'arah', 'kejadian', 'menabrak', 'tewas', 'luka', 'jatuh', 'terkait', 'penumpang']</t>
+          <t>['mengalami_luka', 'arah', 'penumpang', 'pengendara', 'pengemudi', 'jalan', 'akibat', 'lintas', 'mobil', 'tkp', 'korban', 'terkait', 'luka', 'petugas', 'kejadian', 'meninggal_dunia', 'mengalami', 'jatuh', 'menabrak', 'bernama', 'sepeda_motor', 'tewas']</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['hukum', 'kerja', 'korban', 'kecelakaan', 'wisata', 'mengalami', 'pemerintah']</t>
+          <t>['pemerintah', 'korban', 'kerja', 'kecelakaan', 'wisata', 'hukum', 'mengalami']</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['bus', 'jaya', 'jalur', 'meninggal_dunia', 'lintas', 'kondisi', 'kanan', 'mengalami', 'korban', 'jalan', 'meninggal', 'melintas', 'kecelakaan', 'mobil', 'kendaraan', 'sopir', 'menabrak', 'diduga', 'ditemukan', 'tewas', 'jam', 'kejadian', 'penumpang']</t>
+          <t>['jam', 'diduga', 'penumpang', 'jalan', 'melintas', 'lintas', 'bus', 'mobil', 'ditemukan', 'korban', 'kanan', 'jaya', 'kecelakaan', 'kendaraan', 'kejadian', 'kondisi', 'meninggal_dunia', 'mengalami', 'meninggal', 'sopir', 'menabrak', 'jalur', 'tewas']</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['kerja', 'sepeda_motor', 'keselamatan', 'pengendara', 'memiliki', 'lintas', 'kecelakaan', 'mengalami', 'mobil', 'kendaraan', 'warga']</t>
+          <t>['mobil', 'mengalami', 'warga', 'keselamatan', 'memiliki', 'kerja', 'kecelakaan', 'pengendara', 'kendaraan', 'sepeda_motor', 'lintas']</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['hukum', 'kerja', 'langsung', 'pesawat', 'korban', 'penumpang', 'meninggal_dunia', 'terkait', 'memiliki', 'jakarta', 'jalan', 'indonesia', 'kecelakaan', 'jatuh', 'kejadian', 'aksi', 'keluarga']</t>
+          <t>['jatuh', 'indonesia', 'korban', 'memiliki', 'kerja', 'penumpang', 'kecelakaan', 'langsung', 'meninggal_dunia', 'jakarta', 'pesawat', 'jalan', 'terkait', 'kejadian', 'aksi', 'keluarga', 'hukum']</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['pengemudi', 'melaju_arah', 'akibat', 'kemacetan', 'lintas', 'kanan', 'bandung', 'korban', 'dikemudikan', 'pengendara', 'jalan', 'kecelakaan', 'mobil', 'kendaraan', 'arah', 'selamat', 'sopir', 'diduga', 'warga', 'luka', 'jatuh', 'kejadian']</t>
+          <t>['arah', 'diduga', 'pengendara', 'pengemudi', 'jalan', 'melaju_arah', 'akibat', 'lintas', 'mobil', 'bandung', 'korban', 'kemacetan', 'kanan', 'dikemudikan', 'luka', 'kecelakaan', 'kendaraan', 'kejadian', 'jatuh', 'sopir', 'warga', 'selamat']</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['akibat', 'kereta', 'petugas', 'tertabrak', 'sepeda_motor', 'peristiwa', 'korban', 'pengendara', 'jalan', 'meninggal', 'melintas', 'kecelakaan', 'lokomotif', 'arah', 'diduga', 'tewas', 'warga', 'hukum', 'keluarga', 'motor', 'kejadian']</t>
+          <t>['arah', 'diduga', 'pengendara', 'peristiwa', 'kereta', 'jalan', 'melintas', 'akibat', 'korban', 'motor', 'hukum', 'kecelakaan', 'lokomotif', 'petugas', 'tertabrak', 'kejadian', 'keluarga', 'meninggal', 'warga', 'sepeda_motor', 'tewas']</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['kereta', 'meninggal_dunia', 'memiliki', 'melintas', 'lintas', 'kecelakaan', 'keselamatan', 'jawa']</t>
+          <t>['keselamatan', 'memiliki', 'kecelakaan', 'meninggal_dunia', 'kereta', 'melintas', 'jawa', 'lintas']</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['jawa', 'bandung', 'korban', 'luka', 'akibat', 'kereta', 'meninggal_dunia', 'terkait', 'proyek', 'jakarta', 'kecelakaan', 'menyebut', 'tewas', 'kejadian', 'tkp', 'insiden']</t>
+          <t>['luka', 'menyebut', 'insiden', 'bandung', 'tkp', 'proyek', 'korban', 'kecelakaan', 'meninggal_dunia', 'kereta', 'tewas', 'terkait', 'kejadian', 'jakarta', 'akibat', 'jawa']</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['peristiwa', 'korban', 'keluarga', 'proses', 'kecelakaan', 'terkait', 'pemerintah', 'mengalami', 'warga']</t>
+          <t>['pemerintah', 'warga', 'keluarga', 'korban', 'kecelakaan', 'peristiwa', 'terkait', 'proses', 'mengalami']</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['meninggal_dunia', 'petugas', 'tkp', 'kanan', 'sepeda_motor', 'korban', 'dikemudikan', 'jalan', 'meninggal', 'kecelakaan', 'mengalami_luka', 'arah', 'sopir', 'saksi', 'tewas', 'warga', 'luka', 'jatuh', 'truk']</t>
+          <t>['mengalami_luka', 'saksi', 'arah', 'jalan', 'tkp', 'korban', 'kanan', 'dikemudikan', 'luka', 'kecelakaan', 'petugas', 'meninggal_dunia', 'jatuh', 'meninggal', 'sopir', 'warga', 'sepeda_motor', 'tewas', 'truk']</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['bus', 'jalur', 'kepolisian', 'lintas', 'mengalami', 'korban', 'jalan', 'meninggal', 'melintas', 'kecelakaan', 'wisata', 'kendaraan', 'selamat', 'kegiatan', 'sopir', 'mengaku', 'menabrak', 'polisi', 'diduga', 'tewas', 'warga', 'kejadian', 'jawa', 'penumpang']</t>
+          <t>['diduga', 'penumpang', 'jalan', 'melintas', 'lintas', 'bus', 'korban', 'wisata', 'jawa', 'kecelakaan', 'kendaraan', 'kejadian', 'mengalami', 'meninggal', 'mengaku', 'sopir', 'warga', 'kegiatan', 'polisi', 'menabrak', 'kepolisian', 'jalur', 'tewas', 'selamat']</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['korban', 'kejadian', 'terkait', 'jalan', 'kecelakaan', 'mobil', 'truk']</t>
+          <t>['mobil', 'korban', 'kecelakaan', 'jalan', 'terkait', 'kejadian', 'truk']</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['pengemudi', 'melaju_arah', 'petugas', 'menyebut', 'tkp', 'mengalami', 'peristiwa', 'jalan', 'kecelakaan', 'bernama', 'mobil', 'mengalami_luka', 'polisi', 'diduga', 'tewas', 'warga', 'luka', 'jatuh', 'kejadian', 'penumpang']</t>
+          <t>['menyebut', 'mengalami_luka', 'diduga', 'penumpang', 'pengemudi', 'peristiwa', 'jalan', 'melaju_arah', 'mobil', 'tkp', 'luka', 'kecelakaan', 'petugas', 'kejadian', 'mengalami', 'jatuh', 'warga', 'polisi', 'bernama', 'tewas']</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['peristiwa', 'korban', 'akibat', 'proses', 'mengaku', 'jalan', 'kecelakaan', 'saksi', 'jatuh', 'bernama', 'tewas', 'kanan']</t>
+          <t>['jatuh', 'mengaku', 'saksi', 'korban', 'kecelakaan', 'peristiwa', 'bernama', 'jalan', 'proses', 'tewas', 'akibat', 'kanan']</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['luka', 'meninggal_dunia', 'pengendara', 'kecelakaan', 'lintas', 'meninggal', 'polisi', 'kejadian', 'mengalami']</t>
+          <t>['luka', 'meninggal', 'lintas', 'polisi', 'kecelakaan', 'pengendara', 'kejadian', 'meninggal_dunia', 'mengalami']</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['peristiwa', 'korban', 'jam', 'kereta', 'petugas', 'melintas', 'pria', 'menyebut', 'kecelakaan', 'polisi', 'api', 'mobil', 'aksi', 'langsung']</t>
+          <t>['menyebut', 'mobil', 'jam', 'polisi', 'korban', 'kecelakaan', 'pria', 'petugas', 'langsung', 'peristiwa', 'kereta', 'api', 'melintas', 'aksi']</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['pengemudi', 'melaju_arah', 'korban', 'luka', 'motor', 'akibat', 'meninggal_dunia', 'kejadian', 'pengendara', 'menabrak', 'jalan', 'pria', 'kecelakaan', 'berinisial', 'diduga', 'tewas', 'truk', 'langsung']</t>
+          <t>['luka', 'melaju_arah', 'korban', 'motor', 'diduga', 'kecelakaan', 'pengendara', 'langsung', 'pria', 'menabrak', 'pengemudi', 'jalan', 'meninggal_dunia', 'berinisial', 'kejadian', 'akibat', 'tewas', 'truk']</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['peristiwa', 'melaju_arah', 'pengemudi', 'bandung', 'korban', 'tewas', 'sepeda_motor', 'motor', 'petugas', 'pengendara', 'memiliki', 'kejadian', 'jalan', 'lintas', 'mobil', 'truk', 'kendaraan', 'langsung']</t>
+          <t>['mobil', 'bandung', 'sepeda_motor', 'korban', 'motor', 'memiliki', 'pengendara', 'petugas', 'langsung', 'kendaraan', 'peristiwa', 'jalan', 'pengemudi', 'melaju_arah', 'kejadian', 'tewas', 'truk', 'lintas']</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['esbw', 'mahasiswa', 'kepolisian', 'proses', 'tertabrak', 'berinisial', 'air', 'tkp', 'korban', 'dikemudikan', 'terkait', 'indonesia', 'kecelakaan', 'mobil', 'latif', 'jakarta', 'hasya', 'saksi', 'polisi', 'motor', 'jatuh', 'kejadian']</t>
+          <t>['indonesia', 'saksi', 'hasya', 'esbw', 'mobil', 'air', 'tkp', 'korban', 'motor', 'mahasiswa', 'terkait', 'jakarta', 'proses', 'dikemudikan', 'kecelakaan', 'tertabrak', 'kejadian', 'berinisial', 'latif', 'jatuh', 'polisi', 'kepolisian']</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['mahasiswa', 'akibat', 'kepolisian', 'meninggal_dunia', 'eko', 'lintas', 'kondisi', 'tertabrak', 'kanan', 'korban', 'jalan', 'meninggal', 'kecelakaan', 'mobil', 'latif', 'jakarta', 'tersangka', 'hasya', 'menabrak', 'polisi', 'tewas', 'luka', 'motor', 'jam', 'truk']</t>
+          <t>['jam', 'hasya', 'jalan', 'akibat', 'lintas', 'mobil', 'korban', 'motor', 'mahasiswa', 'jakarta', 'kanan', 'luka', 'eko', 'kecelakaan', 'tersangka', 'tertabrak', 'kondisi', 'meninggal_dunia', 'latif', 'meninggal', 'polisi', 'menabrak', 'kepolisian', 'tewas', 'truk']</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['anaknya', 'langsung', 'peristiwa', 'rumah', 'korban', 'sepeda_motor', 'arah', 'akibat', 'kereta', 'tertabrak', 'api', 'tewas', 'kejadian', 'jawa', 'keluarga']</t>
+          <t>['anaknya', 'rumah', 'sepeda_motor', 'arah', 'korban', 'langsung', 'peristiwa', 'kereta', 'tewas', 'tertabrak', 'kejadian', 'api', 'akibat', 'keluarga', 'jawa']</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['pesawat', 'insiden', 'jam', 'menabrak', 'lintas', 'kondisi', 'polisi', 'air', 'kanan', 'penumpang', 'mengalami', 'langsung']</t>
+          <t>['insiden', 'air', 'mengalami', 'jam', 'polisi', 'penumpang', 'langsung', 'menabrak', 'pesawat', 'kondisi', 'kanan', 'lintas']</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['laut', 'pesawat', 'rumah', 'ditemukan', 'sekolah', 'mengaku', 'ibunya', 'jalan', 'pria', 'kecelakaan', 'bernama', 'and', 'api', 'truk', 'mengalami', 'keluarga']</t>
+          <t>['mengaku', 'laut', 'rumah', 'ditemukan', 'and', 'kecelakaan', 'sekolah', 'pria', 'pesawat', 'bernama', 'ibunya', 'api', 'jalan', 'keluarga', 'truk', 'mengalami']</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['bus', 'jalur', 'luka', 'akibat', 'terkait', 'sopir', 'mengaku', 'menabrak', 'jalan', 'kondisi', 'kecelakaan', 'uang', 'truk', 'kanan', 'penumpang', 'mengalami', 'insiden']</t>
+          <t>['luka', 'bus', 'mengaku', 'sopir', 'insiden', 'jalur', 'uang', 'kecelakaan', 'penumpang', 'menabrak', 'jalan', 'terkait', 'kondisi', 'akibat', 'kanan', 'truk', 'mengalami']</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['hukum', 'tersangka', 'korban', 'luka', 'tewas', 'proses', 'sopir', 'jalan', 'lintas', 'kondisi', 'kecelakaan', 'polisi', 'mobil', 'kejadian', 'jawa', 'penumpang', 'keluarga']</t>
+          <t>['luka', 'mobil', 'sopir', 'keluarga', 'polisi', 'korban', 'kecelakaan', 'hukum', 'penumpang', 'jalan', 'tersangka', 'kejadian', 'kondisi', 'tewas', 'proses', 'jawa', 'lintas']</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['bus', 'jalur', 'korban', 'jam', 'proses', 'kecelakaan', 'menyebut', 'jawa', 'penumpang']</t>
+          <t>['menyebut', 'bus', 'jam', 'korban', 'kecelakaan', 'penumpang', 'jalur', 'proses', 'jawa']</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -6367,7 +6367,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['laut', 'latif', 'bus', 'kapal', 'warga', 'menyebut', 'polisi', 'truk', 'kendaraan', 'langsung']</t>
+          <t>['menyebut', 'bus', 'laut', 'warga', 'polisi', 'langsung', 'kendaraan', 'kapal', 'truk', 'latif']</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['peristiwa', 'insiden', 'bandung', 'korban', 'luka', 'akibat', 'kereta', 'kepolisian', 'terkait', 'proses', 'jakarta', 'proyek', 'indonesia', 'menyebut', 'kecelakaan', 'kejadian', 'jawa', 'langsung']</t>
+          <t>['luka', 'menyebut', 'insiden', 'bandung', 'indonesia', 'proyek', 'korban', 'kecelakaan', 'langsung', 'peristiwa', 'kereta', 'kepolisian', 'terkait', 'kejadian', 'jakarta', 'akibat', 'proses', 'jawa']</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['laut', 'rumah', 'korban', 'jam', 'helikopter', 'kecelakaan', 'jenazah', 'jakarta', 'keluarga']</t>
+          <t>['rumah', 'laut', 'jam', 'jenazah', 'korban', 'kecelakaan', 'helikopter', 'jakarta', 'keluarga']</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['kerja', 'meninggal_dunia', 'memiliki', 'indonesia', 'kecelakaan', 'mengalami']</t>
+          <t>['indonesia', 'kecelakaan', 'kerja', 'memiliki', 'meninggal_dunia', 'mengalami']</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -6642,7 +6642,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['pengemudi', 'melaju_arah', 'akibat', 'meninggal_dunia', 'lintas', 'kondisi', 'berinisial', 'kanan', 'sepeda_motor', 'korban', 'pengendara', 'jalan', 'meninggal', 'kecelakaan', 'mengalami_luka', 'kendaraan', 'kejadian', 'tewas', 'warga', 'luka', 'motor', 'truk', 'pria']</t>
+          <t>['mengalami_luka', 'pengendara', 'pria', 'pengemudi', 'jalan', 'melaju_arah', 'akibat', 'lintas', 'korban', 'motor', 'kanan', 'luka', 'kecelakaan', 'kendaraan', 'berinisial', 'kejadian', 'kondisi', 'meninggal_dunia', 'meninggal', 'warga', 'sepeda_motor', 'tewas', 'truk']</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['hukum', 'langsung', 'akibat', 'jalan', 'lintas', 'kecelakaan', 'jakarta', 'pemerintah', 'mengalami', 'warga']</t>
+          <t>['pemerintah', 'mengalami', 'warga', 'kecelakaan', 'langsung', 'jalan', 'jakarta', 'akibat', 'hukum', 'lintas']</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['melaju_arah', 'meninggal_dunia', 'kondisi', 'menyebut', 'berinisial', 'tertabrak', 'tkp', 'kanan', 'sepeda_motor', 'korban', 'pengendara', 'ibunya', 'jalan', 'meninggal', 'kecelakaan', 'truk', 'mengalami_luka', 'kendaraan', 'lubang', 'menabrak', 'polisi', 'tewas', 'warga', 'luka', 'motor', 'jatuh', 'kejadian']</t>
+          <t>['menyebut', 'mengalami_luka', 'pengendara', 'ibunya', 'jalan', 'melaju_arah', 'tkp', 'korban', 'motor', 'kanan', 'luka', 'kecelakaan', 'kendaraan', 'tertabrak', 'kejadian', 'kondisi', 'berinisial', 'meninggal_dunia', 'jatuh', 'meninggal', 'warga', 'polisi', 'menabrak', 'tewas', 'sepeda_motor', 'lubang', 'truk']</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['lokomotif', 'surabaya', 'jalur', 'dikemudikan', 'arah', 'mojokerto', 'kereta', 'menabrak', 'jalan', 'melintas', 'kecelakaan', 'tertabrak', 'mobil', 'truk', 'kendaraan', 'warga']</t>
+          <t>['mobil', 'tertabrak', 'warga', 'jalur', 'arah', 'kecelakaan', 'mojokerto', 'lokomotif', 'menabrak', 'kendaraan', 'kereta', 'jalan', 'melintas', 'surabaya', 'truk', 'dikemudikan']</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['bus', 'jalur', 'luka', 'akibat', 'jalan', 'kondisi', 'kecelakaan', 'polisi', 'tewas']</t>
+          <t>['luka', 'bus', 'polisi', 'kecelakaan', 'jalan', 'tewas', 'jalur', 'kondisi', 'akibat']</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['bus', 'korban', 'luka', 'meninggal_dunia', 'sopir', 'meninggal', 'kecelakaan', 'tewas', 'kejadian', 'penumpang']</t>
+          <t>['luka', 'meninggal', 'bus', 'sopir', 'korban', 'kecelakaan', 'penumpang', 'kejadian', 'tewas', 'meninggal_dunia']</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['laut', 'surabaya', 'kapal', 'jam', 'kegiatan', 'kecelakaan', 'kondisi', 'titik', 'pelaku', 'keselamatan', 'terkait', 'jawa', 'penumpang']</t>
+          <t>['laut', 'jam', 'kegiatan', 'titik', 'keselamatan', 'kecelakaan', 'pelaku', 'penumpang', 'terkait', 'kondisi', 'kapal', 'surabaya', 'jawa']</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['pengemudi', 'bus', 'kondisi', 'kanan', 'mengalami', 'korban', 'dikemudikan', 'jalan', 'meninggal', 'kecelakaan', 'mobil', 'mengalami_luka', 'kendaraan', 'selamat', 'menabrak', 'diduga', 'tewas', 'langsung', 'luka', 'kejadian', 'penumpang']</t>
+          <t>['mengalami_luka', 'diduga', 'penumpang', 'langsung', 'pengemudi', 'jalan', 'bus', 'mobil', 'korban', 'kanan', 'dikemudikan', 'luka', 'kecelakaan', 'kendaraan', 'kejadian', 'kondisi', 'mengalami', 'meninggal', 'menabrak', 'tewas', 'selamat']</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['tenggelam', 'kapal', 'korban', 'luka', 'selamat', 'akibat', 'menabrak', 'melintas', 'kecelakaan', 'diduga', 'mengalami_luka', 'kejadian', 'penumpang', 'mengalami', 'insiden']</t>
+          <t>['luka', 'insiden', 'mengalami_luka', 'tenggelam', 'korban', 'kecelakaan', 'diduga', 'penumpang', 'menabrak', 'melintas', 'kejadian', 'akibat', 'kapal', 'selamat', 'mengalami']</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['laut', 'tenggelam', 'kapal', 'arah', 'jalan', 'kondisi', 'menyebut', 'air', 'terkait', 'pria']</t>
+          <t>['menyebut', 'air', 'laut', 'tenggelam', 'arah', 'pria', 'jalan', 'terkait', 'kondisi', 'kapal']</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['melaju_arah', 'surabaya', 'jalur', 'eko', 'tertabrak', 'kanan', 'mengalami', 'sepeda_motor', 'korban', 'dikemudikan', 'pengendara', 'kecelakaan', 'mojokerto', 'arah', 'menabrak', 'diduga', 'warga', 'luka', 'motor']</t>
+          <t>['arah', 'diduga', 'pengendara', 'melaju_arah', 'korban', 'motor', 'kanan', 'dikemudikan', 'luka', 'eko', 'kecelakaan', 'mojokerto', 'tertabrak', 'surabaya', 'mengalami', 'warga', 'jalur', 'menabrak', 'sepeda_motor']</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['rumah', 'akibat', 'kepolisian', 'kondisi', 'menyebut', 'tkp', 'mengalami', 'sepeda_motor', 'terkait', 'jalan', 'kecelakaan', 'mengalami_luka', 'insiden', 'mengaku', 'saksi', 'polisi', 'langsung', 'keluarga', 'luka', 'motor', 'jatuh', 'kejadian']</t>
+          <t>['menyebut', 'mengalami_luka', 'saksi', 'langsung', 'jalan', 'akibat', 'insiden', 'tkp', 'motor', 'terkait', 'luka', 'rumah', 'kecelakaan', 'kejadian', 'kondisi', 'keluarga', 'mengalami', 'jatuh', 'mengaku', 'polisi', 'kepolisian', 'sepeda_motor']</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>['hukum', 'kerja', 'korban', 'memiliki', 'jakarta', 'jalan', 'menyebut', 'kecelakaan', 'terkait', 'aksi', 'keluarga']</t>
+          <t>['menyebut', 'aksi', 'korban', 'memiliki', 'kerja', 'kecelakaan', 'jalan', 'terkait', 'jakarta', 'keluarga', 'hukum']</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -7662,7 +7662,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['anaknya', 'tenggelam', 'langsung', 'rumah', 'insiden', 'korban', 'meninggal_dunia', 'pencarian', 'petugas', 'kecelakaan', 'saksi', 'bernama', 'ditemukan', 'tewas', 'warga']</t>
+          <t>['insiden', 'rumah', 'anaknya', 'warga', 'ditemukan', 'tenggelam', 'saksi', 'korban', 'kecelakaan', 'petugas', 'langsung', 'pencarian', 'bernama', 'tewas', 'meninggal_dunia']</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['laut', 'tenggelam', 'peristiwa', 'kapal', 'korban', 'luka', 'akibat', 'meninggal_dunia', 'bernama', 'wisata', 'mengalami_luka', 'kejadian', 'jawa', 'penumpang', 'mengalami', 'keluarga']</t>
+          <t>['luka', 'laut', 'mengalami_luka', 'tenggelam', 'keluarga', 'korban', 'penumpang', 'wisata', 'meninggal_dunia', 'peristiwa', 'bernama', 'kejadian', 'akibat', 'kapal', 'jawa', 'mengalami']</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['langsung', 'rumah', 'korban', 'tewas', 'kepolisian', 'meninggal_dunia', 'menabrak', 'lintas', 'melintas', 'jenazah', 'saksi', 'polisi', 'kesehatan', 'mobil', 'kejadian', 'bernama', 'warga']</t>
+          <t>['mobil', 'rumah', 'warga', 'saksi', 'jenazah', 'polisi', 'korban', 'langsung', 'menabrak', 'kepolisian', 'bernama', 'melintas', 'kejadian', 'tewas', 'kesehatan', 'meninggal_dunia', 'lintas']</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['bus', 'akibat', 'jam', 'kemacetan', 'kecelakaan', 'mengalami', 'titik', 'bernama', 'jakarta', 'penumpang', 'kendaraan', 'insiden']</t>
+          <t>['bus', 'insiden', 'jam', 'kecelakaan', 'penumpang', 'kendaraan', 'bernama', 'kemacetan', 'jakarta', 'akibat', 'titik', 'mengalami']</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['pengemudi', 'kepolisian', 'petugas', 'tertabrak', 'aksi', 'anaknya', 'korban', 'remaja', 'kecelakaan', 'truk', 'keselamatan', 'kegiatan', 'sopir', 'polisi', 'tewas', 'langsung', 'bogor', 'kejadian', 'pria']</t>
+          <t>['keselamatan', 'pria', 'langsung', 'pengemudi', 'bogor', 'anaknya', 'korban', 'kecelakaan', 'petugas', 'tertabrak', 'kejadian', 'sopir', 'kegiatan', 'remaja', 'polisi', 'kepolisian', 'aksi', 'tewas', 'truk']</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['kerja', 'siti', 'laut', 'tenggelam', 'jaya', 'kapal', 'korban', 'mengaku', 'meninggal', 'menyebut', 'polisi', 'ditemukan', 'bernama', 'tewas', 'jawa', 'penumpang', 'keluarga']</t>
+          <t>['meninggal', 'menyebut', 'mengaku', 'laut', 'siti', 'ditemukan', 'tenggelam', 'keluarga', 'polisi', 'korban', 'kerja', 'penumpang', 'bernama', 'tewas', 'kapal', 'jawa', 'jaya']</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['laut', 'langsung', 'insiden', 'kapal', 'pencarian', 'memiliki', 'mengaku', 'lintas', 'kondisi', 'indonesia', 'menyebut', 'and', 'kecelakaan', 'jakarta', 'aksi', 'warga']</t>
+          <t>['menyebut', 'mengaku', 'insiden', 'kondisi', 'laut', 'warga', 'aksi', 'indonesia', 'and', 'memiliki', 'kecelakaan', 'langsung', 'pencarian', 'jakarta', 'kapal', 'lintas']</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['pesawat', 'kepolisian', 'meninggal_dunia', 'petugas', 'kondisi', 'menyebut', 'kapal', 'korban', 'meninggal', 'jakarta', 'helikopter', 'jenazah', 'and', 'ditemukan', 'tewas', 'langsung', 'keluarga', 'pencarian', 'jatuh', 'terkait']</t>
+          <t>['menyebut', 'jenazah', 'langsung', 'ditemukan', 'korban', 'and', 'helikopter', 'pesawat', 'terkait', 'jakarta', 'kapal', 'petugas', 'kondisi', 'keluarga', 'meninggal_dunia', 'jatuh', 'meninggal', 'pencarian', 'kepolisian', 'tewas']</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>['melaju_arah', 'jalur', 'korban', 'arah', 'luka', 'menabrak', 'jalan', 'melintas', 'kecelakaan', 'diduga', 'mengalami_luka', 'kejadian']</t>
+          <t>['luka', 'melaju_arah', 'mengalami_luka', 'jalur', 'arah', 'korban', 'diduga', 'kecelakaan', 'menabrak', 'jalan', 'melintas', 'kejadian']</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -8353,7 +8353,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>['hukum', 'bandung', 'terkait', 'pengendara', 'jalan', 'kecelakaan', 'pelaku', 'polisi', 'wisata', 'kejadian', 'jawa', 'aksi', 'warga']</t>
+          <t>['warga', 'bandung', 'polisi', 'kecelakaan', 'hukum', 'pelaku', 'pengendara', 'wisata', 'jalan', 'terkait', 'kejadian', 'aksi', 'jawa']</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['bandung', 'remaja', 'dikemudikan', 'petugas', 'memiliki', 'mengaku', 'kecelakaan', 'penyidik', 'mengalami', 'polisi', 'ditemukan', 'uang', 'mobil', 'kejadian', 'tersangka', 'aksi', 'kendaraan', 'pria']</t>
+          <t>['penyidik', 'mengaku', 'mobil', 'ditemukan', 'bandung', 'remaja', 'uang', 'polisi', 'kecelakaan', 'memiliki', 'pria', 'petugas', 'kendaraan', 'tersangka', 'kejadian', 'aksi', 'dikemudikan', 'mengalami']</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>['jalur', 'akibat', 'lintas', 'kondisi', 'kanan', 'mengalami', 'korban', 'dikemudikan', 'pengendara', 'jalan', 'melintas', 'kecelakaan', 'mobil', 'insiden', 'selamat', 'sopir', 'menabrak', 'langsung', 'warga', 'keluarga', 'kejadian']</t>
+          <t>['pengendara', 'langsung', 'jalan', 'melintas', 'akibat', 'lintas', 'mobil', 'insiden', 'korban', 'kanan', 'dikemudikan', 'kecelakaan', 'kejadian', 'kondisi', 'keluarga', 'mengalami', 'sopir', 'warga', 'menabrak', 'jalur', 'selamat']</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['rumah', 'pengemudi', 'jalur', 'korban', 'arah', 'luka', 'kejadian', 'sopir', 'menabrak', 'jalan', 'kecelakaan', 'diduga', 'truk', 'kanan', 'kendaraan']</t>
+          <t>['luka', 'sopir', 'rumah', 'arah', 'korban', 'diduga', 'kecelakaan', 'kendaraan', 'menabrak', 'jalan', 'pengemudi', 'jalur', 'kejadian', 'kanan', 'truk']</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['anaknya', 'kerja', 'warga', 'jalan', 'indonesia', 'kecelakaan', 'kesehatan', 'mobil', 'jakarta', 'jawa', 'aksi', 'keluarga']</t>
+          <t>['mobil', 'anaknya', 'warga', 'indonesia', 'keluarga', 'kecelakaan', 'kerja', 'jakarta', 'jalan', 'aksi', 'kesehatan', 'jawa']</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['kerja', 'perusahaan', 'rumah', 'jalur', 'korban', 'memiliki', 'jakarta', 'lintas', 'kecelakaan', 'jatuh', 'pelaku', 'wisata', 'keselamatan', 'terkait', 'pemerintah']</t>
+          <t>['jatuh', 'perusahaan', 'pemerintah', 'rumah', 'jalur', 'keselamatan', 'memiliki', 'korban', 'pelaku', 'wisata', 'kerja', 'kecelakaan', 'terkait', 'jakarta', 'lintas']</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['pengemudi', 'korban', 'arah', 'akibat', 'kejadian', 'menabrak', 'jalan', 'melintas', 'kecelakaan', 'jatuh', 'diduga', 'mobil', 'truk', 'jawa', 'kendaraan', 'warga']</t>
+          <t>['jatuh', 'mobil', 'warga', 'arah', 'korban', 'diduga', 'truk', 'kecelakaan', 'menabrak', 'kendaraan', 'jalan', 'pengemudi', 'melintas', 'kejadian', 'akibat', 'jawa']</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>['laut', 'tenggelam', 'peristiwa', 'kapal', 'korban', 'motor', 'air', 'keselamatan', 'kejadian', 'penumpang', 'mengalami', 'langsung']</t>
+          <t>['air', 'laut', 'tenggelam', 'keselamatan', 'motor', 'korban', 'penumpang', 'langsung', 'peristiwa', 'kejadian', 'kapal', 'mengalami']</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>['lokomotif', 'bandung', 'jalur', 'korban', 'luka', 'kereta', 'meninggal_dunia', 'proyek', 'jakarta', 'meninggal', 'kecelakaan', 'polisi', 'tewas', 'kejadian', 'tkp', 'mengalami', 'insiden']</t>
+          <t>['luka', 'meninggal', 'insiden', 'bandung', 'tkp', 'polisi', 'proyek', 'korban', 'kecelakaan', 'lokomotif', 'kereta', 'jalur', 'kejadian', 'jakarta', 'tewas', 'meninggal_dunia', 'mengalami']</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>['kerja', 'rumah', 'insiden', 'korban', 'luka', 'kecelakaan', 'jatuh', 'bernama', 'diduga', 'mengalami_luka', 'kanan', 'warga']</t>
+          <t>['luka', 'jatuh', 'insiden', 'rumah', 'warga', 'mengalami_luka', 'korban', 'kerja', 'diduga', 'kecelakaan', 'bernama', 'kanan']</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>['jalur', 'lintas', 'kondisi', 'wisata', 'mobil', 'kendaraan', 'sepeda_motor']</t>
+          <t>['mobil', 'jalur', 'wisata', 'kendaraan', 'sepeda_motor', 'kondisi', 'lintas']</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -9058,7 +9058,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>['esbw', 'mahasiswa', 'rumah', 'meninggal_dunia', 'proses', 'berinisial', 'anaknya', 'meninggal', 'indonesia', 'kecelakaan', 'jakarta', 'tersangka', 'hasya', 'mengaku', 'polisi', 'tewas', 'keluarga', 'hukum', 'pelaku', 'bogor']</t>
+          <t>['indonesia', 'hasya', 'pelaku', 'bogor', 'esbw', 'anaknya', 'mahasiswa', 'jakarta', 'proses', 'hukum', 'rumah', 'kecelakaan', 'tersangka', 'berinisial', 'keluarga', 'meninggal_dunia', 'meninggal', 'mengaku', 'polisi', 'tewas']</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -9132,7 +9132,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>['tenggelam', 'jaya', 'kapal', 'korban', 'selamat', 'motor', 'akibat', 'petugas', 'jakarta', 'menabrak', 'kondisi', 'kesehatan', 'kejadian', 'jawa', 'penumpang']</t>
+          <t>['selamat', 'kondisi', 'tenggelam', 'korban', 'motor', 'penumpang', 'petugas', 'menabrak', 'akibat', 'kejadian', 'jakarta', 'kapal', 'kesehatan', 'jawa', 'jaya']</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>['pengemudi', 'akibat', 'kereta', 'meninggal_dunia', 'tertabrak', 'kanan', 'anaknya', 'peristiwa', 'korban', 'melintas', 'kecelakaan', 'mobil', 'arah', 'sopir', 'saksi', 'polisi', 'diduga', 'tewas', 'warga', 'keluarga', 'api', 'kejadian', 'penumpang']</t>
+          <t>['saksi', 'arah', 'diduga', 'penumpang', 'pengemudi', 'peristiwa', 'kereta', 'melintas', 'akibat', 'mobil', 'anaknya', 'korban', 'api', 'kanan', 'kecelakaan', 'tertabrak', 'kejadian', 'keluarga', 'meninggal_dunia', 'sopir', 'warga', 'polisi', 'tewas']</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['hukum', 'korban', 'kejadian', 'sopir', 'proses', 'mengaku', 'kecelakaan', 'bogor', 'tewas', 'truk']</t>
+          <t>['mengaku', 'sopir', 'korban', 'kecelakaan', 'hukum', 'tewas', 'kejadian', 'bogor', 'proses', 'truk']</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['korban', 'luka', 'meninggal_dunia', 'pengendara', 'jalan', 'lintas', 'kecelakaan', 'titik', 'meninggal', 'kejadian', 'mengalami']</t>
+          <t>['luka', 'meninggal', 'mengalami', 'korban', 'kecelakaan', 'pengendara', 'jalan', 'kejadian', 'titik', 'meninggal_dunia', 'lintas']</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['anaknya', 'peristiwa', 'korban', 'akibat', 'meninggal_dunia', 'terkait', 'jakarta', 'meninggal', 'kondisi', 'kecelakaan', 'jatuh', 'kejadian', 'pemerintah']</t>
+          <t>['jatuh', 'meninggal', 'pemerintah', 'kondisi', 'anaknya', 'korban', 'kecelakaan', 'peristiwa', 'terkait', 'kejadian', 'jakarta', 'akibat', 'meninggal_dunia']</t>
         </is>
       </c>
       <c r="F128" t="n">

--- a/what/kecelakaan/df_result_lda.xlsx
+++ b/what/kecelakaan/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['mengalami_luka', 'pria', 'langsung', 'jalan', 'anaknya', 'korban', 'nggak', 'jakarta', 'luka', 'rumah', 'kecelakaan', 'kejadian', 'kondisi', 'berinisial', 'keluarga', 'meninggal_dunia', 'jatuh', 'meninggal', 'mengaku', 'pemerintah', 'warga']</t>
+          <t>['mengaku', 'meninggal', 'mengalami_luka', 'kecelakaan', 'keluarga', 'nggak', 'jakarta', 'kejadian', 'luka', 'korban', 'jalan', 'warga', 'rumah', 'meninggal_dunia', 'langsung', 'kondisi', 'anaknya']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -584,7 +584,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['luka', 'air', 'rumah', 'ditemukan', 'keselamatan', 'kecelakaan', 'bernama', 'jalan', 'nggak', 'kondisi', 'akibat', 'kesehatan']</t>
+          <t>['keselamatan', 'kecelakaan', 'ditemukan', 'bernama', 'nggak', 'luka', 'kesehatan', 'rumah', 'jalan', 'kondisi']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -643,7 +643,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['luka', 'mobil', 'mengalami_luka', 'polisi', 'arah', 'kecelakaan', 'penumpang', 'pengemudi', 'peristiwa', 'jalan', 'kejadian', 'akibat', 'dikemudikan', 'mengalami']</t>
+          <t>['mobil', 'peristiwa', 'penumpang', 'polisi', 'kecelakaan', 'mengalami_luka', 'rombongan', 'pengemudi', 'luka', 'kejadian', 'arah', 'jalan']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['penyidik', 'mobil', 'rumah', 'bandung', 'polisi', 'proyek', 'memiliki', 'pelaku', 'langsung', 'peristiwa', 'terkait', 'berinisial', 'aksi', 'tewas', 'jawa']</t>
+          <t>['mobil', 'peristiwa', 'polisi', 'terkait', 'memiliki', 'tewas', 'rumah', 'langsung', 'pelaku', 'purwakarta', 'aksi']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -832,7 +832,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['luka', 'anaknya', 'mengalami_luka', 'warga', 'polisi', 'keselamatan', 'motor', 'korban', 'kecelakaan', 'sekolah', 'petugas', 'pengendara', 'kendaraan', 'pengemudi', 'jalan', 'terkait', 'meninggal_dunia', 'lintas']</t>
+          <t>['keselamatan', 'polisi', 'mengalami_luka', 'kendaraan', 'terkait', 'pengemudi', 'luka', 'motor', 'korban', 'lintas', 'warga', 'meninggal_dunia', 'kecelakaan', 'anaknya']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -895,7 +895,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['meninggal', 'bus', 'mobil', 'sopir', 'warga', 'kegiatan', 'bandung', 'korban', 'kecelakaan', 'menabrak', 'peristiwa', 'kejadian', 'akibat', 'meninggal_dunia']</t>
+          <t>['mobil', 'meninggal', 'peristiwa', 'rombongan', 'menabrak', 'sopir', 'kejadian', 'korban', 'kegiatan', 'warga', 'meninggal_dunia', 'kecelakaan', 'bus', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -982,7 +982,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['laut', 'rumah', 'indonesia', 'kegiatan', 'tenggelam', 'uang', 'titik', 'memiliki', 'penumpang', 'pria', 'petugas', 'terkait', 'kapal']</t>
+          <t>['titik', 'penumpang', 'uang', 'terkait', 'memiliki', 'kegiatan', 'indonesia', 'kapal', 'rumah', 'tenggelam']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['luka', 'insiden', 'mengalami_luka', 'warga', 'arah', 'motor', 'kecelakaan', 'bernama', 'jalan', 'sepeda_motor', 'kejadian', 'tewas', 'kanan', 'meninggal_dunia']</t>
+          <t>['mengalami_luka', 'kecelakaan', 'bernama', 'luka', 'kejadian', 'arah', 'jalan', 'tewas', 'warga', 'meninggal_dunia', 'motor', 'sepeda_motor', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['kanan', 'insiden', 'kondisi', 'air', 'keselamatan', 'memiliki', 'kecelakaan', 'penumpang', 'menabrak', 'pesawat', 'terkait', 'jakarta', 'kesehatan', 'mengalami']</t>
+          <t>['keselamatan', 'penumpang', 'menabrak', 'terkait', 'pesawat', 'nomor', 'memiliki', 'jakarta', 'kesehatan', 'kecelakaan', 'kondisi']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['meninggal', 'rumah', 'remaja', 'polisi', 'korban', 'motor', 'meninggal_dunia', 'langsung', 'peristiwa', 'berinisial', 'kondisi', 'tewas', 'keluarga', 'jawa']</t>
+          <t>['polisi', 'peristiwa', 'keluarga', 'motor', 'korban', 'tewas', 'rumah', 'langsung', 'kondisi', 'remaja']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['penyidik', 'menyebut', 'penumpang', 'pengendara', 'langsung', 'pengemudi', 'melintas', 'mobil', 'tkp', 'korban', 'terkait', 'jakarta', 'proses', 'jawa', 'kanan', 'hukum', 'kecelakaan', 'kendaraan', 'tersangka', 'kejadian', 'keluarga', 'titik', 'mengaku', 'sopir', 'polisi', 'menabrak', 'kepolisian', 'bernama', 'sepeda_motor', 'tewas']</t>
+          <t>['titik', 'mengaku', 'polisi', 'sopir', 'tewas', 'kecelakaan', 'mobil', 'polda_metro', 'nomor', 'kejadian', 'korban', 'motor', 'rombongan', 'penumpang', 'pengemudi', 'keluarga', 'jakarta', 'langsung', 'cianjur', 'kendaraan', 'menabrak', 'bernama', 'terkait', 'tersangka', 'menyebut']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['arah', 'pengendara', 'pengemudi', 'peristiwa', 'jalan', 'melintas', 'korban', 'motor', 'kanan', 'dikemudikan', 'kecelakaan', 'kendaraan', 'kejadian', 'surabaya', 'meninggal', 'warga', 'jalur', 'menabrak', 'bernama', 'sepeda_motor', 'tewas', 'truk']</t>
+          <t>['truk', 'kendaraan', 'surabaya', 'peristiwa', 'menabrak', 'kecelakaan', 'bernama', 'pengemudi', 'kejadian', 'arah', 'korban', 'jalan', 'tewas', 'warga', 'motor', 'sepeda_motor', 'jalur']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['bus', 'mobil', 'melaju_arah', 'polisi', 'korban', 'kecelakaan', 'petugas', 'menabrak', 'kepolisian', 'kendaraan', 'jalan', 'pengemudi', 'jakarta', 'akibat', 'kanan', 'dikemudikan', 'mengalami']</t>
+          <t>['mobil', 'kendaraan', 'menabrak', 'polisi', 'kecelakaan', 'pengemudi', 'jakarta', 'korban', 'jalan', 'bus']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['pemerintah', 'tertabrak', 'insiden', 'warga', 'kegiatan', 'polisi', 'kecelakaan', 'motor', 'memiliki', 'terkait', 'proses', 'lintas']</t>
+          <t>['polisi', 'kecelakaan', 'terkait', 'memiliki', 'kegiatan', 'lintas', 'warga', 'motor', 'tertabrak']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['arah', 'kecelakaan', 'petugas', 'menabrak', 'jalan', 'kemacetan', 'jalur', 'jakarta', 'akibat', 'truk', 'mengalami']</t>
+          <t>['truk', 'menabrak', 'kecelakaan', 'jakarta', 'tol', 'arah', 'kemacetan', 'jalan', 'jalur']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['luka', 'mengalami_luka', 'polisi', 'korban', 'kecelakaan', 'pelaku', 'petugas', 'kendaraan', 'peristiwa', 'bernama', 'kepolisian', 'aksi']</t>
+          <t>['mengalami_luka', 'peristiwa', 'kendaraan', 'polisi', 'bernama', 'luka', 'korban', 'kecelakaan', 'pelaku', 'aksi']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['mengalami_luka', 'arah', 'diduga', 'penumpang', 'pengemudi', 'selamat', 'bus', 'insiden', 'tkp', 'korban', 'dikemudikan', 'luka', 'kecelakaan', 'kendaraan', 'kejadian', 'meninggal_dunia', 'meninggal', 'sopir', 'menabrak', 'bernama', 'tewas', 'truk']</t>
+          <t>['truk', 'meninggal', 'penumpang', 'mengalami_luka', 'kendaraan', 'diduga', 'menabrak', 'bernama', 'pengemudi', 'sopir', 'luka', 'kejadian', 'arah', 'korban', 'tewas', 'meninggal_dunia', 'kecelakaan']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['menyebut', 'insiden', 'sepeda_motor', 'kecelakaan', 'wisata', 'terkait']</t>
+          <t>['terkait', 'kecelakaan', 'sepeda_motor', 'menyebut']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['luka', 'mobil', 'tkp', 'arah', 'korban', 'kecelakaan', 'petugas', 'kendaraan', 'peristiwa', 'jalan', 'kemacetan', 'terkait', 'pengemudi', 'jakarta', 'truk', 'lintas']</t>
+          <t>['truk', 'mobil', 'peristiwa', 'kendaraan', 'kecelakaan', 'terkait', 'pengemudi', 'jakarta', 'luka', 'arah', 'korban', 'tol', 'kemacetan', 'jalan']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['arah', 'diduga', 'pengendara', 'peristiwa', 'kereta', 'jalan', 'melintas', 'akibat', 'insiden', 'anaknya', 'korban', 'motor', 'hukum', 'rumah', 'kecelakaan', 'lokomotif', 'petugas', 'tertabrak', 'kejadian', 'keluarga', 'meninggal', 'warga', 'bernama', 'sepeda_motor', 'tewas']</t>
+          <t>['peristiwa', 'diduga', 'kecelakaan', 'bernama', 'api', 'keluarga', 'kereta', 'kejadian', 'arah', 'korban', 'jalan', 'tewas', 'warga', 'rumah', 'motor', 'sepeda_motor', 'anaknya', 'tertabrak']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['luka', 'mengaku', 'mobil', 'rumah', 'arah', 'korban', 'kecelakaan', 'langsung', 'menabrak', 'kepolisian', 'tewas', 'melintas', 'kejadian', 'akibat', 'proses', 'truk', 'mengalami']</t>
+          <t>['truk', 'mengaku', 'menabrak', 'kecelakaan', 'luka', 'kejadian', 'arah', 'korban', 'jalan', 'tewas', 'langsung', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['mengalami_luka', 'arah', 'pelaku', 'pengemudi', 'jalan', 'melaju_arah', 'akibat', 'mobil', 'tkp', 'korban', 'luka', 'kecelakaan', 'kendaraan', 'kejadian', 'meninggal_dunia', 'meninggal', 'kegiatan', 'polisi', 'menabrak']</t>
+          <t>['mobil', 'meninggal', 'polisi', 'mengalami_luka', 'kecelakaan', 'kendaraan', 'menabrak', 'pengemudi', 'nomor', 'luka', 'kejadian', 'arah', 'korban', 'kegiatan', 'meninggal_dunia', 'jalan', 'pelaku']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['mengalami_luka', 'jam', 'saksi', 'jenazah', 'jalan', 'melaju_arah', 'akibat', 'mobil', 'anaknya', 'korban', 'motor', 'kanan', 'siti', 'jawa', 'dikemudikan', 'luka', 'rumah', 'kecelakaan', 'kendaraan', 'tertabrak', 'kejadian', 'surabaya', 'keluarga', 'meninggal_dunia', 'mengalami', 'kegiatan', 'warga', 'polisi', 'tewas', 'lubang', 'selamat']</t>
+          <t>['polisi', 'mengalami_luka', 'luka', 'tewas', 'jenazah', 'kecelakaan', 'tertabrak', 'purwakarta', 'rumah_sakit', 'mobil', 'surabaya', 'korban', 'motor', 'keluarga', 'anaknya', 'lubang', 'kendaraan', 'kegiatan', 'warga', 'rumah', 'jalan', 'siti']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['meninggal', 'mengaku', 'rumah', 'remaja', 'keluarga', 'kecelakaan', 'pelaku', 'pria', 'proses', 'akibat', 'kesehatan', 'meninggal_dunia']</t>
+          <t>['mengaku', 'meninggal', 'keluarga', 'kesehatan', 'rumah', 'meninggal_dunia', 'kecelakaan', 'pelaku', 'remaja']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['arah', 'penumpang', 'langsung', 'pengemudi', 'peristiwa', 'jalan', 'melintas', 'akibat', 'insiden', 'korban', 'kanan', 'dikemudikan', 'rumah', 'kecelakaan', 'kendaraan', 'kejadian', 'kondisi', 'mengalami', 'warga', 'menabrak', 'jalur', 'kesehatan', 'truk']</t>
+          <t>['truk', 'kendaraan', 'peristiwa', 'penumpang', 'menabrak', 'kecelakaan', 'pengemudi', 'kejadian', 'arah', 'korban', 'jalan', 'kesehatan', 'warga', 'rumah', 'langsung', 'kondisi', 'jalur']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['menyebut', 'jam', 'arah', 'diduga', 'pengemudi', 'peristiwa', 'jalan', 'melaju_arah', 'lintas', 'tkp', 'korban', 'kemacetan', 'nggak', 'jakarta', 'kanan', 'kecelakaan', 'petugas', 'kendaraan', 'mengalami', 'menabrak', 'truk']</t>
+          <t>['truk', 'kendaraan', 'peristiwa', 'menabrak', 'diduga', 'polda_metro', 'kecelakaan', 'pengemudi', 'nggak', 'jakarta', 'arah', 'korban', 'kemacetan', 'jalan', 'menyebut']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['arah', 'pengemudi', 'jalan', 'akibat', 'lintas', 'insiden', 'tkp', 'korban', 'jakarta', 'jaya', 'kecelakaan', 'petugas', 'kendaraan', 'kejadian', 'mengalami', 'sopir', 'menabrak', 'jalur', 'truk']</t>
+          <t>['truk', 'kendaraan', 'menabrak', 'kecelakaan', 'pengemudi', 'sopir', 'jakarta', 'tol', 'arah', 'korban', 'lintas', 'jalan', 'jalur']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['luka', 'selamat', 'mengalami_luka', 'warga', 'sepeda_motor', 'korban', 'kecelakaan', 'diduga', 'motor', 'langsung', 'peristiwa', 'bernama', 'jalan', 'melintas', 'kondisi', 'hukum']</t>
+          <t>['mengalami_luka', 'peristiwa', 'diduga', 'kecelakaan', 'bernama', 'luka', 'motor', 'korban', 'jalan', 'warga', 'sepeda_motor', 'langsung', 'kondisi', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['mengalami_luka', 'arah', 'penumpang', 'pengemudi', 'akibat', 'selamat', 'bus', 'insiden', 'tkp', 'korban', 'dikemudikan', 'luka', 'kecelakaan', 'kendaraan', 'kejadian', 'meninggal_dunia', 'meninggal', 'sopir', 'polisi', 'menabrak', 'bernama', 'tewas', 'truk']</t>
+          <t>['truk', 'meninggal', 'penumpang', 'mengalami_luka', 'kendaraan', 'menabrak', 'bernama', 'pengemudi', 'luka', 'arah', 'korban', 'tewas', 'kecelakaan', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['luka', 'meninggal', 'insiden', 'mengalami_luka', 'warga', 'korban', 'kecelakaan', 'meninggal_dunia', 'pria', 'jalan', 'tewas', 'berinisial', 'kejadian', 'akibat', 'truk']</t>
+          <t>['truk', 'meninggal', 'mengalami_luka', 'kecelakaan', 'luka', 'korban', 'tewas', 'warga', 'meninggal_dunia', 'jalan', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['luka', 'mengalami_luka', 'tkp', 'arah', 'motor', 'korban', 'truk', 'kecelakaan', 'petugas', 'bogor', 'peristiwa', 'sepeda_motor', 'akibat', 'kanan', 'jawa']</t>
+          <t>['truk', 'mengalami_luka', 'peristiwa', 'kecelakaan', 'luka', 'arah', 'korban', 'bogor', 'motor', 'sepeda_motor']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['mengalami_luka', 'jenazah', 'arah', 'diduga', 'pengemudi', 'peristiwa', 'akibat', 'tkp', 'korban', 'kanan', 'dikemudikan', 'luka', 'kecelakaan', 'mojokerto', 'kendaraan', 'kejadian', 'sopir', 'warga', 'polisi', 'menabrak', 'bernama', 'tewas', 'truk']</t>
+          <t>['polisi', 'mengalami_luka', 'diduga', 'sopir', 'luka', 'arah', 'tewas', 'jenazah', 'mojokerto', 'kecelakaan', 'kejadian', 'korban', 'peristiwa', 'pengemudi', 'tol', 'truk', 'kendaraan', 'menabrak', 'bernama', 'warga']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['penyidik', 'tkp', 'saksi', 'polisi', 'korban', 'kecelakaan', 'pelaku', 'peristiwa', 'tersangka', 'kejadian', 'kondisi', 'proses']</t>
+          <t>['polisi', 'peristiwa', 'tersangka', 'korban', 'kecelakaan', 'kondisi', 'pelaku']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['luka', 'mobil', 'rumah', 'mengalami_luka', 'polisi', 'arah', 'kecelakaan', 'penumpang', 'menabrak', 'peristiwa', 'kepolisian', 'kendaraan', 'jalan', 'pengemudi', 'akibat', 'kanan', 'mengalami']</t>
+          <t>['mobil', 'peristiwa', 'penumpang', 'polisi', 'kecelakaan', 'mengalami_luka', 'kendaraan', 'pengemudi', 'menabrak', 'luka', 'arah', 'rumah', 'jalan']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['meninggal', 'mobil', 'tkp', 'polisi', 'korban', 'kecelakaan', 'diduga', 'menabrak', 'peristiwa', 'kendaraan', 'tewas', 'tertabrak', 'berinisial', 'akibat', 'proses', 'dikemudikan']</t>
+          <t>['mobil', 'meninggal', 'peristiwa', 'polisi', 'diduga', 'kendaraan', 'menabrak', 'korban', 'kecelakaan', 'tertabrak']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['mengalami_luka', 'saksi', 'pria', 'jalan', 'akibat', 'insiden', 'korban', 'kanan', 'dikemudikan', 'luka', 'kecelakaan', 'berinisial', 'kejadian', 'meninggal_dunia', 'meninggal', 'sopir', 'warga', 'menabrak', 'tewas', 'truk']</t>
+          <t>['truk', 'meninggal', 'mengalami_luka', 'menabrak', 'kecelakaan', 'sopir', 'luka', 'korban', 'tewas', 'warga', 'meninggal_dunia', 'jalan']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['arah', 'kecelakaan', 'pengendara', 'petugas', 'kendaraan', 'melintas', 'jakarta']</t>
+          <t>['kendaraan', 'jakarta', 'tol', 'arah', 'kecelakaan']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['selamat', 'mengaku', 'laut', 'siti', 'keluarga', 'polisi', 'korban', 'peristiwa', 'kepolisian', 'bernama', 'tersangka', 'tewas', 'akibat', 'proses', 'jawa']</t>
+          <t>['mengaku', 'peristiwa', 'polisi', 'polda_metro', 'bernama', 'tersangka', 'keluarga', 'korban', 'siti']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['bus', 'mobil', 'sopir', 'mengalami', 'warga', 'arah', 'korban', 'kecelakaan', 'menabrak', 'kendaraan', 'pengemudi', 'kejadian', 'akibat', 'proses', 'truk', 'dikemudikan', 'lintas']</t>
+          <t>['truk', 'mobil', 'rombongan', 'kendaraan', 'menabrak', 'pengemudi', 'sopir', 'kejadian', 'arah', 'korban', 'semarang', 'warga', 'kecelakaan', 'bus']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['luka', 'anaknya', 'mengalami_luka', 'polisi', 'korban', 'motor', 'kecelakaan', 'meninggal_dunia', 'pengendara', 'petugas', 'menabrak', 'kendaraan', 'jalan', 'pengemudi', 'sepeda_motor', 'tewas', 'truk']</t>
+          <t>['truk', 'polisi', 'mengalami_luka', 'kendaraan', 'menabrak', 'kecelakaan', 'pengemudi', 'luka', 'korban', 'jalan', 'tewas', 'meninggal_dunia', 'motor', 'sepeda_motor', 'anaknya']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['luka', 'tertabrak', 'insiden', 'ditemukan', 'saksi', 'polisi', 'korban', 'petugas', 'langsung', 'api', 'kereta', 'terkait', 'kejadian', 'jakarta', 'tewas', 'proses']</t>
+          <t>['polisi', 'ditemukan', 'terkait', 'api', 'kereta', 'jakarta', 'kejadian', 'luka', 'korban', 'tewas', 'langsung', 'tertabrak']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['jatuh', 'ditemukan', 'korban', 'penumpang', 'pria', 'helikopter', 'pencarian', 'pesawat', 'api', 'kejadian', 'selamat']</t>
+          <t>['penumpang', 'ditemukan', 'pesawat', 'api', 'pencarian', 'kejadian', 'korban']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['mengalami_luka', 'jenazah', 'arah', 'pengendara', 'jalan', 'melaju_arah', 'mobil', 'korban', 'luka', 'kecelakaan', 'kejadian', 'titik', 'mengalami', 'sopir', 'warga', 'bernama', 'sepeda_motor', 'tewas', 'truk']</t>
+          <t>['titik', 'truk', 'mobil', 'mengalami_luka', 'kecelakaan', 'bernama', 'sopir', 'luka', 'arah', 'korban', 'jalan', 'semarang', 'tewas', 'warga', 'jenazah', 'motor', 'sepeda_motor']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['luka', 'menyebut', 'mobil', 'sopir', 'polisi', 'korban', 'kecelakaan', 'kendaraan', 'peristiwa', 'jalan', 'proses', 'pengemudi', 'jakarta', 'akibat', 'kanan', 'dikemudikan', 'mengalami']</t>
+          <t>['mobil', 'peristiwa', 'polisi', 'kendaraan', 'kecelakaan', 'pengemudi', 'sopir', 'jakarta', 'luka', 'korban', 'lintas', 'jalan', 'menyebut']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['luka', 'meninggal', 'bus', 'mobil', 'warga', 'korban', 'kecelakaan', 'kendaraan', 'peristiwa', 'tertabrak', 'kejadian', 'tewas', 'meninggal_dunia', 'mengalami']</t>
+          <t>['mobil', 'meninggal', 'peristiwa', 'rombongan', 'kendaraan', 'luka', 'kejadian', 'korban', 'tewas', 'warga', 'meninggal_dunia', 'kecelakaan', 'tertabrak', 'bus']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['ditemukan', 'laut', 'saksi', 'jenazah', 'korban', 'arah', 'kecelakaan', 'pencarian', 'peristiwa', 'tewas', 'titik']</t>
+          <t>['titik', 'peristiwa', 'ditemukan', 'pencarian', 'arah', 'korban', 'tewas', 'jenazah', 'kecelakaan']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['menyebut', 'mengaku', 'sopir', 'kegiatan', 'polisi', 'kecelakaan', 'penumpang', 'langsung', 'pengemudi', 'kepolisian', 'kejadian', 'bogor', 'titik', 'hukum']</t>
+          <t>['titik', 'mengaku', 'penumpang', 'polisi', 'kecelakaan', 'pengemudi', 'sopir', 'nomor', 'kejadian', 'bogor', 'kegiatan', 'langsung', 'menyebut']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['luka', 'rumah', 'warga', 'ditemukan', 'saksi', 'polisi', 'korban', 'kecelakaan', 'pelaku', 'langsung', 'bernama', 'ibunya', 'tewas', 'mengalami']</t>
+          <t>['polisi', 'kecelakaan', 'ditemukan', 'bernama', 'luka', 'korban', 'tewas', 'warga', 'rumah', 'langsung', 'pelaku']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['menyebut', 'mengalami_luka', 'jam', 'indonesia', 'pria', 'langsung', 'pengemudi', 'jalan', 'air', 'insiden', 'korban', 'motor', 'nggak', 'kanan', 'jawa', 'luka', 'kecelakaan', 'kendaraan', 'kejadian', 'kondisi', 'mengalami', 'jatuh', 'mengaku', 'warga', 'kegiatan', 'bernama', 'sepeda_motor', 'aksi']</t>
+          <t>['mengaku', 'mengalami_luka', 'luka', 'indonesia', 'kecelakaan', 'kondisi', 'rumah_sakit', 'nggak', 'kejadian', 'korban', 'motor', 'sepeda_motor', 'aksi', 'pengemudi', 'langsung', 'kendaraan', 'bernama', 'kegiatan', 'warga', 'jalan', 'menyebut']</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['arah', 'diduga', 'penumpang', 'jalan', 'lintas', 'mobil', 'tkp', 'korban', 'siti', 'dikemudikan', 'luka', 'kejadian', 'kondisi', 'keluarga', 'meninggal_dunia', 'sopir', 'warga', 'polisi', 'menabrak', 'tewas', 'truk']</t>
+          <t>['polisi', 'diduga', 'sopir', 'luka', 'arah', 'tewas', 'meninggal_dunia', 'kondisi', 'rumah_sakit', 'mobil', 'nomor', 'kejadian', 'korban', 'lintas', 'penumpang', 'keluarga', 'truk', 'menabrak', 'warga', 'jalan', 'siti']</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['luka', 'meninggal', 'mobil', 'anaknya', 'korban', 'kecelakaan', 'kondisi', 'tewas', 'keluarga', 'selamat', 'mengalami']</t>
+          <t>['mobil', 'meninggal', 'keluarga', 'luka', 'korban', 'tewas', 'kecelakaan', 'kondisi', 'anaknya']</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['luka', 'mobil', 'polisi', 'korban', 'kendaraan', 'peristiwa', 'jalan', 'kejadian', 'tewas', 'selamat', 'lintas']</t>
+          <t>['mobil', 'peristiwa', 'polisi', 'rombongan', 'kendaraan', 'luka', 'kejadian', 'korban', 'tewas', 'lintas', 'jalan']</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['menyebut', 'mengaku', 'mobil', 'tersangka', 'warga', 'polisi', 'korban', 'kecelakaan', 'kerja', 'pelaku', 'pria', 'kendaraan', 'berinisial', 'kejadian', 'jawa']</t>
+          <t>['mengaku', 'mobil', 'polisi', 'kendaraan', 'tersangka', 'kejadian', 'korban', 'warga', 'kerja', 'rumah_sakit', 'kecelakaan', 'pelaku', 'menyebut']</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['jatuh', 'mengaku', 'mobil', 'warga', 'kecelakaan', 'pengendara', 'langsung', 'menabrak', 'peristiwa', 'tertabrak', 'nggak', 'mengalami']</t>
+          <t>['mobil', 'mengaku', 'peristiwa', 'menabrak', 'kecelakaan', 'nggak', 'warga', 'magetan', 'langsung', 'tertabrak']</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['pemerintah', 'insiden', 'arah', 'keselamatan', 'petugas', 'menabrak', 'peristiwa', 'terkait', 'kondisi', 'akibat', 'kapal', 'melintas']</t>
+          <t>['keselamatan', 'peristiwa', 'menabrak', 'terkait', 'arah', 'kapal', 'kondisi']</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['jatuh', 'rumah', 'jam', 'ditemukan', 'tenggelam', 'keluarga', 'korban', 'diduga', 'langsung', 'pencarian', 'bernama', 'perusahaan', 'kejadian', 'kondisi', 'tewas', 'kapal', 'jawa']</t>
+          <t>['diduga', 'ditemukan', 'bernama', 'keluarga', 'pencarian', 'kejadian', 'korban', 'tewas', 'kapal', 'tenggelam', 'langsung', 'kondisi']</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['luka', 'mobil', 'air', 'warga', 'jam', 'indonesia', 'tenggelam', 'uang', 'korban', 'memiliki', 'kecelakaan', 'petugas', 'kendaraan', 'peristiwa', 'surabaya', 'kejadian', 'lubang', 'proses']</t>
+          <t>['mobil', 'surabaya', 'peristiwa', 'kendaraan', 'uang', 'memiliki', 'luka', 'kejadian', 'korban', 'indonesia', 'warga', 'tenggelam', 'kecelakaan', 'lubang']</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['mengalami_luka', 'arah', 'penumpang', 'pengendara', 'pengemudi', 'jalan', 'akibat', 'lintas', 'mobil', 'tkp', 'korban', 'terkait', 'luka', 'petugas', 'kejadian', 'meninggal_dunia', 'mengalami', 'jatuh', 'menabrak', 'bernama', 'sepeda_motor', 'tewas']</t>
+          <t>['mobil', 'penumpang', 'mengalami_luka', 'menabrak', 'bernama', 'pengemudi', 'terkait', 'luka', 'kejadian', 'arah', 'korban', 'jalan', 'lintas', 'tewas', 'meninggal_dunia', 'motor', 'sepeda_motor', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['pemerintah', 'korban', 'kerja', 'kecelakaan', 'wisata', 'hukum', 'mengalami']</t>
+          <t>['korban', 'kecelakaan', 'nomor', 'kerja']</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['jam', 'diduga', 'penumpang', 'jalan', 'melintas', 'lintas', 'bus', 'mobil', 'ditemukan', 'korban', 'kanan', 'jaya', 'kecelakaan', 'kendaraan', 'kejadian', 'kondisi', 'meninggal_dunia', 'mengalami', 'meninggal', 'sopir', 'menabrak', 'jalur', 'tewas']</t>
+          <t>['mobil', 'meninggal', 'penumpang', 'kendaraan', 'diduga', 'ditemukan', 'kecelakaan', 'menabrak', 'sopir', 'kejadian', 'korban', 'tewas', 'lintas', 'meninggal_dunia', 'jalan', 'kondisi', 'bus', 'jalur']</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['mobil', 'mengalami', 'warga', 'keselamatan', 'memiliki', 'kerja', 'kecelakaan', 'pengendara', 'kendaraan', 'sepeda_motor', 'lintas']</t>
+          <t>['mobil', 'keselamatan', 'kendaraan', 'kecelakaan', 'memiliki', 'lintas', 'warga', 'kerja', 'motor', 'sepeda_motor']</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['jatuh', 'indonesia', 'korban', 'memiliki', 'kerja', 'penumpang', 'kecelakaan', 'langsung', 'meninggal_dunia', 'jakarta', 'pesawat', 'jalan', 'terkait', 'kejadian', 'aksi', 'keluarga', 'hukum']</t>
+          <t>['penumpang', 'kecelakaan', 'terkait', 'pesawat', 'nomor', 'memiliki', 'jakarta', 'kejadian', 'korban', 'jalan', 'indonesia', 'kerja', 'meninggal_dunia', 'langsung', 'aksi']</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['arah', 'diduga', 'pengendara', 'pengemudi', 'jalan', 'melaju_arah', 'akibat', 'lintas', 'mobil', 'bandung', 'korban', 'kemacetan', 'kanan', 'dikemudikan', 'luka', 'kecelakaan', 'kendaraan', 'kejadian', 'jatuh', 'sopir', 'warga', 'selamat']</t>
+          <t>['mobil', 'kendaraan', 'diduga', 'kecelakaan', 'pengemudi', 'sopir', 'luka', 'kejadian', 'arah', 'korban', 'lintas', 'warga', 'kemacetan', 'jalan']</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['arah', 'diduga', 'pengendara', 'peristiwa', 'kereta', 'jalan', 'melintas', 'akibat', 'korban', 'motor', 'hukum', 'kecelakaan', 'lokomotif', 'petugas', 'tertabrak', 'kejadian', 'keluarga', 'meninggal', 'warga', 'sepeda_motor', 'tewas']</t>
+          <t>['peristiwa', 'diduga', 'kecelakaan', 'api', 'keluarga', 'kereta', 'kejadian', 'arah', 'korban', 'jalan', 'tewas', 'warga', 'motor', 'sepeda_motor', 'tertabrak']</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['keselamatan', 'memiliki', 'kecelakaan', 'meninggal_dunia', 'kereta', 'melintas', 'jawa', 'lintas']</t>
+          <t>['keselamatan', 'memiliki', 'api', 'kereta', 'lintas', 'meninggal_dunia', 'kecelakaan']</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['luka', 'menyebut', 'insiden', 'bandung', 'tkp', 'proyek', 'korban', 'kecelakaan', 'meninggal_dunia', 'kereta', 'tewas', 'terkait', 'kejadian', 'jakarta', 'akibat', 'jawa']</t>
+          <t>['terkait', 'kereta', 'jakarta', 'kejadian', 'luka', 'korban', 'tewas', 'kecelakaan', 'menyebut']</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['pemerintah', 'warga', 'keluarga', 'korban', 'kecelakaan', 'peristiwa', 'terkait', 'proses', 'mengalami']</t>
+          <t>['peristiwa', 'terkait', 'keluarga', 'korban', 'warga', 'kecelakaan']</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['mengalami_luka', 'saksi', 'arah', 'jalan', 'tkp', 'korban', 'kanan', 'dikemudikan', 'luka', 'kecelakaan', 'petugas', 'meninggal_dunia', 'jatuh', 'meninggal', 'sopir', 'warga', 'sepeda_motor', 'tewas', 'truk']</t>
+          <t>['truk', 'mengalami_luka', 'sopir', 'luka', 'arah', 'korban', 'tewas', 'warga', 'meninggal_dunia', 'kecelakaan', 'sepeda_motor']</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['diduga', 'penumpang', 'jalan', 'melintas', 'lintas', 'bus', 'korban', 'wisata', 'jawa', 'kecelakaan', 'kendaraan', 'kejadian', 'mengalami', 'meninggal', 'mengaku', 'sopir', 'warga', 'kegiatan', 'polisi', 'menabrak', 'kepolisian', 'jalur', 'tewas', 'selamat']</t>
+          <t>['mengaku', 'diduga', 'sopir', 'tewas', 'magetan', 'kecelakaan', 'meninggal', 'kejadian', 'korban', 'semarang', 'lintas', 'bus', 'jalur', 'rombongan', 'penumpang', 'kendaraan', 'menabrak', 'kegiatan', 'warga', 'jalan']</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['mobil', 'korban', 'kecelakaan', 'jalan', 'terkait', 'kejadian', 'truk']</t>
+          <t>['truk', 'kecelakaan', 'terkait', 'kejadian', 'korban', 'jalan']</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['menyebut', 'mengalami_luka', 'diduga', 'penumpang', 'pengemudi', 'peristiwa', 'jalan', 'melaju_arah', 'mobil', 'tkp', 'luka', 'kecelakaan', 'petugas', 'kejadian', 'mengalami', 'jatuh', 'warga', 'polisi', 'bernama', 'tewas']</t>
+          <t>['mobil', 'peristiwa', 'penumpang', 'polisi', 'diduga', 'kecelakaan', 'bernama', 'pengemudi', 'mengalami_luka', 'luka', 'kejadian', 'tewas', 'warga', 'jalan', 'menyebut']</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['jatuh', 'mengaku', 'saksi', 'korban', 'kecelakaan', 'peristiwa', 'bernama', 'jalan', 'proses', 'tewas', 'akibat', 'kanan']</t>
+          <t>['mengaku', 'peristiwa', 'kecelakaan', 'bernama', 'korban', 'tewas', 'jalan']</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['luka', 'meninggal', 'lintas', 'polisi', 'kecelakaan', 'pengendara', 'kejadian', 'meninggal_dunia', 'mengalami']</t>
+          <t>['polisi', 'meninggal', 'luka', 'kejadian', 'lintas', 'meninggal_dunia', 'kecelakaan']</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['menyebut', 'mobil', 'jam', 'polisi', 'korban', 'kecelakaan', 'pria', 'petugas', 'langsung', 'peristiwa', 'kereta', 'api', 'melintas', 'aksi']</t>
+          <t>['polisi', 'peristiwa', 'kecelakaan', 'api', 'kereta', 'korban', 'langsung', 'menyebut', 'aksi']</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['luka', 'melaju_arah', 'korban', 'motor', 'diduga', 'kecelakaan', 'pengendara', 'langsung', 'pria', 'menabrak', 'pengemudi', 'jalan', 'meninggal_dunia', 'berinisial', 'kejadian', 'akibat', 'tewas', 'truk']</t>
+          <t>['langsung', 'truk', 'menabrak', 'diduga', 'kecelakaan', 'pengemudi', 'luka', 'kejadian', 'korban', 'jalan', 'tewas', 'motor']</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['mobil', 'bandung', 'sepeda_motor', 'korban', 'motor', 'memiliki', 'pengendara', 'petugas', 'langsung', 'kendaraan', 'peristiwa', 'jalan', 'pengemudi', 'melaju_arah', 'kejadian', 'tewas', 'truk', 'lintas']</t>
+          <t>['langsung', 'truk', 'mobil', 'peristiwa', 'kendaraan', 'pengemudi', 'memiliki', 'kejadian', 'korban', 'jalan', 'tewas', 'lintas', 'motor', 'sepeda_motor', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['indonesia', 'saksi', 'hasya', 'esbw', 'mobil', 'air', 'tkp', 'korban', 'motor', 'mahasiswa', 'terkait', 'jakarta', 'proses', 'dikemudikan', 'kecelakaan', 'tertabrak', 'kejadian', 'berinisial', 'latif', 'jatuh', 'polisi', 'kepolisian']</t>
+          <t>['mobil', 'polisi', 'polda_metro', 'latif', 'kecelakaan', 'terkait', 'jakarta', 'kejadian', 'korban', 'indonesia', 'tertabrak', 'motor', 'esbw', 'hasya', 'mahasiswa']</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['jam', 'hasya', 'jalan', 'akibat', 'lintas', 'mobil', 'korban', 'motor', 'mahasiswa', 'jakarta', 'kanan', 'luka', 'eko', 'kecelakaan', 'tersangka', 'tertabrak', 'kondisi', 'meninggal_dunia', 'latif', 'meninggal', 'polisi', 'menabrak', 'kepolisian', 'tewas', 'truk']</t>
+          <t>['polisi', 'latif', 'eko', 'luka', 'tewas', 'meninggal_dunia', 'kecelakaan', 'kondisi', 'tertabrak', 'mobil', 'polda_metro', 'korban', 'lintas', 'motor', 'hasya', 'mahasiswa', 'jakarta', 'truk', 'menabrak', 'tersangka', 'jalan']</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['anaknya', 'rumah', 'sepeda_motor', 'arah', 'korban', 'langsung', 'peristiwa', 'kereta', 'tewas', 'tertabrak', 'kejadian', 'api', 'akibat', 'keluarga', 'jawa']</t>
+          <t>['peristiwa', 'api', 'keluarga', 'kereta', 'kejadian', 'arah', 'korban', 'tewas', 'rumah', 'langsung', 'sepeda_motor', 'anaknya', 'tertabrak']</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['insiden', 'air', 'mengalami', 'jam', 'polisi', 'penumpang', 'langsung', 'menabrak', 'pesawat', 'kondisi', 'kanan', 'lintas']</t>
+          <t>['polisi', 'penumpang', 'menabrak', 'pesawat', 'lintas', 'langsung', 'kondisi']</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['mengaku', 'laut', 'rumah', 'ditemukan', 'and', 'kecelakaan', 'sekolah', 'pria', 'pesawat', 'bernama', 'ibunya', 'api', 'jalan', 'keluarga', 'truk', 'mengalami']</t>
+          <t>['truk', 'mengaku', 'kecelakaan', 'ditemukan', 'bernama', 'pesawat', 'keluarga', 'api', 'rumah', 'jalan', 'and', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['luka', 'bus', 'mengaku', 'sopir', 'insiden', 'jalur', 'uang', 'kecelakaan', 'penumpang', 'menabrak', 'jalan', 'terkait', 'kondisi', 'akibat', 'kanan', 'truk', 'mengalami']</t>
+          <t>['truk', 'mengaku', 'penumpang', 'menabrak', 'uang', 'kecelakaan', 'terkait', 'sopir', 'luka', 'jalan', 'kondisi', 'bus', 'jalur']</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['luka', 'mobil', 'sopir', 'keluarga', 'polisi', 'korban', 'kecelakaan', 'hukum', 'penumpang', 'jalan', 'tersangka', 'kejadian', 'kondisi', 'tewas', 'proses', 'jawa', 'lintas']</t>
+          <t>['polisi', 'penumpang', 'rombongan', 'kecelakaan', 'tersangka', 'keluarga', 'nomor', 'sopir', 'kejadian', 'luka', 'korban', 'tewas', 'lintas', 'jalan', 'kondisi']</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['menyebut', 'bus', 'jam', 'korban', 'kecelakaan', 'penumpang', 'jalur', 'proses', 'jawa']</t>
+          <t>['rombongan', 'penumpang', 'korban', 'semarang', 'magetan', 'kecelakaan', 'bus', 'menyebut', 'jalur']</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -6367,7 +6367,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['menyebut', 'bus', 'laut', 'warga', 'polisi', 'langsung', 'kendaraan', 'kapal', 'truk', 'latif']</t>
+          <t>['truk', 'kendaraan', 'polisi', 'latif', 'warga', 'kapal', 'langsung', 'bus', 'menyebut']</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['luka', 'menyebut', 'insiden', 'bandung', 'indonesia', 'proyek', 'korban', 'kecelakaan', 'langsung', 'peristiwa', 'kereta', 'kepolisian', 'terkait', 'kejadian', 'jakarta', 'akibat', 'proses', 'jawa']</t>
+          <t>['peristiwa', 'kecelakaan', 'terkait', 'kereta', 'jakarta', 'kejadian', 'luka', 'korban', 'indonesia', 'langsung', 'menyebut']</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['rumah', 'laut', 'jam', 'jenazah', 'korban', 'kecelakaan', 'helikopter', 'jakarta', 'keluarga']</t>
+          <t>['keluarga', 'nomor', 'jakarta', 'korban', 'jenazah', 'rumah', 'kecelakaan']</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['indonesia', 'kecelakaan', 'kerja', 'memiliki', 'meninggal_dunia', 'mengalami']</t>
+          <t>['memiliki', 'indonesia', 'kerja', 'meninggal_dunia', 'kecelakaan']</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -6642,7 +6642,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['mengalami_luka', 'pengendara', 'pria', 'pengemudi', 'jalan', 'melaju_arah', 'akibat', 'lintas', 'korban', 'motor', 'kanan', 'luka', 'kecelakaan', 'kendaraan', 'berinisial', 'kejadian', 'kondisi', 'meninggal_dunia', 'meninggal', 'warga', 'sepeda_motor', 'tewas', 'truk']</t>
+          <t>['truk', 'mengalami_luka', 'kendaraan', 'kecelakaan', 'pengemudi', 'luka', 'kejadian', 'motor', 'korban', 'tewas', 'warga', 'lintas', 'meninggal_dunia', 'sepeda_motor', 'jalan', 'kondisi']</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['pemerintah', 'mengalami', 'warga', 'kecelakaan', 'langsung', 'jalan', 'jakarta', 'akibat', 'hukum', 'lintas']</t>
+          <t>['kecelakaan', 'nomor', 'jakarta', 'jalan', 'lintas', 'warga', 'langsung']</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['menyebut', 'mengalami_luka', 'pengendara', 'ibunya', 'jalan', 'melaju_arah', 'tkp', 'korban', 'motor', 'kanan', 'luka', 'kecelakaan', 'kendaraan', 'tertabrak', 'kejadian', 'kondisi', 'berinisial', 'meninggal_dunia', 'jatuh', 'meninggal', 'warga', 'polisi', 'menabrak', 'tewas', 'sepeda_motor', 'lubang', 'truk']</t>
+          <t>['polisi', 'mengalami_luka', 'luka', 'tewas', 'meninggal_dunia', 'kecelakaan', 'kondisi', 'tertabrak', 'meninggal', 'kejadian', 'korban', 'motor', 'sepeda_motor', 'lubang', 'truk', 'kendaraan', 'menabrak', 'warga', 'jalan', 'menyebut']</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['mobil', 'tertabrak', 'warga', 'jalur', 'arah', 'kecelakaan', 'mojokerto', 'lokomotif', 'menabrak', 'kendaraan', 'kereta', 'jalan', 'melintas', 'surabaya', 'truk', 'dikemudikan']</t>
+          <t>['truk', 'mobil', 'surabaya', 'kendaraan', 'menabrak', 'kecelakaan', 'nomor', 'kereta', 'arah', 'warga', 'mojokerto', 'jalan', 'tertabrak', 'jalur']</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['luka', 'bus', 'polisi', 'kecelakaan', 'jalan', 'tewas', 'jalur', 'kondisi', 'akibat']</t>
+          <t>['polisi', 'rombongan', 'kecelakaan', 'luka', 'semarang', 'tewas', 'magetan', 'jalan', 'kondisi', 'bus', 'jalur']</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['luka', 'meninggal', 'bus', 'sopir', 'korban', 'kecelakaan', 'penumpang', 'kejadian', 'tewas', 'meninggal_dunia']</t>
+          <t>['penumpang', 'sopir', 'luka', 'kejadian', 'korban', 'tewas', 'magetan', 'kecelakaan', 'bus', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['laut', 'jam', 'kegiatan', 'titik', 'keselamatan', 'kecelakaan', 'pelaku', 'penumpang', 'terkait', 'kondisi', 'kapal', 'surabaya', 'jawa']</t>
+          <t>['titik', 'keselamatan', 'surabaya', 'penumpang', 'terkait', 'nomor', 'kegiatan', 'kapal', 'kecelakaan', 'kondisi', 'pelaku']</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['mengalami_luka', 'diduga', 'penumpang', 'langsung', 'pengemudi', 'jalan', 'bus', 'mobil', 'korban', 'kanan', 'dikemudikan', 'luka', 'kecelakaan', 'kendaraan', 'kejadian', 'kondisi', 'mengalami', 'meninggal', 'menabrak', 'tewas', 'selamat']</t>
+          <t>['mengalami_luka', 'diduga', 'luka', 'tewas', 'kecelakaan', 'kondisi', 'purwakarta', 'rumah_sakit', 'mobil', 'meninggal', 'kejadian', 'korban', 'bus', 'penumpang', 'pengemudi', 'tol', 'langsung', 'kendaraan', 'menabrak', 'jalan']</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['luka', 'insiden', 'mengalami_luka', 'tenggelam', 'korban', 'kecelakaan', 'diduga', 'penumpang', 'menabrak', 'melintas', 'kejadian', 'akibat', 'kapal', 'selamat', 'mengalami']</t>
+          <t>['mengalami_luka', 'penumpang', 'menabrak', 'diduga', 'luka', 'kejadian', 'korban', 'kapal', 'tenggelam', 'kecelakaan']</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['menyebut', 'air', 'laut', 'tenggelam', 'arah', 'pria', 'jalan', 'terkait', 'kondisi', 'kapal']</t>
+          <t>['terkait', 'arah', 'kapal', 'tenggelam', 'jalan', 'kondisi', 'menyebut']</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['arah', 'diduga', 'pengendara', 'melaju_arah', 'korban', 'motor', 'kanan', 'dikemudikan', 'luka', 'eko', 'kecelakaan', 'mojokerto', 'tertabrak', 'surabaya', 'mengalami', 'warga', 'jalur', 'menabrak', 'sepeda_motor']</t>
+          <t>['surabaya', 'menabrak', 'diduga', 'kecelakaan', 'eko', 'luka', 'arah', 'korban', 'warga', 'mojokerto', 'motor', 'sepeda_motor', 'tertabrak', 'jalur']</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['menyebut', 'mengalami_luka', 'saksi', 'langsung', 'jalan', 'akibat', 'insiden', 'tkp', 'motor', 'terkait', 'luka', 'rumah', 'kecelakaan', 'kejadian', 'kondisi', 'keluarga', 'mengalami', 'jatuh', 'mengaku', 'polisi', 'kepolisian', 'sepeda_motor']</t>
+          <t>['langsung', 'mengaku', 'polisi', 'mengalami_luka', 'kecelakaan', 'terkait', 'nomor', 'keluarga', 'luka', 'kejadian', 'jalan', 'lintas', 'rumah', 'motor', 'menyebut', 'kondisi', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>['menyebut', 'aksi', 'korban', 'memiliki', 'kerja', 'kecelakaan', 'jalan', 'terkait', 'jakarta', 'keluarga', 'hukum']</t>
+          <t>['kecelakaan', 'terkait', 'memiliki', 'jakarta', 'korban', 'kerja', 'jalan', 'menyebut', 'aksi']</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -7662,7 +7662,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['insiden', 'rumah', 'anaknya', 'warga', 'ditemukan', 'tenggelam', 'saksi', 'korban', 'kecelakaan', 'petugas', 'langsung', 'pencarian', 'bernama', 'tewas', 'meninggal_dunia']</t>
+          <t>['kecelakaan', 'ditemukan', 'bernama', 'pencarian', 'korban', 'tewas', 'warga', 'rumah', 'meninggal_dunia', 'tenggelam', 'langsung', 'anaknya']</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['luka', 'laut', 'mengalami_luka', 'tenggelam', 'keluarga', 'korban', 'penumpang', 'wisata', 'meninggal_dunia', 'peristiwa', 'bernama', 'kejadian', 'akibat', 'kapal', 'jawa', 'mengalami']</t>
+          <t>['mengalami_luka', 'peristiwa', 'penumpang', 'bernama', 'keluarga', 'luka', 'kejadian', 'korban', 'kapal', 'tenggelam']</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['mobil', 'rumah', 'warga', 'saksi', 'jenazah', 'polisi', 'korban', 'langsung', 'menabrak', 'kepolisian', 'bernama', 'melintas', 'kejadian', 'tewas', 'kesehatan', 'meninggal_dunia', 'lintas']</t>
+          <t>['mobil', 'polisi', 'menabrak', 'bernama', 'kejadian', 'kesehatan', 'korban', 'lintas', 'warga', 'jenazah', 'meninggal_dunia', 'tewas', 'langsung', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['bus', 'insiden', 'jam', 'kecelakaan', 'penumpang', 'kendaraan', 'bernama', 'kemacetan', 'jakarta', 'akibat', 'titik', 'mengalami']</t>
+          <t>['titik', 'kendaraan', 'penumpang', 'bernama', 'jakarta', 'kemacetan', 'kecelakaan', 'bus']</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['keselamatan', 'pria', 'langsung', 'pengemudi', 'bogor', 'anaknya', 'korban', 'kecelakaan', 'petugas', 'tertabrak', 'kejadian', 'sopir', 'kegiatan', 'remaja', 'polisi', 'kepolisian', 'aksi', 'tewas', 'truk']</t>
+          <t>['truk', 'keselamatan', 'rombongan', 'polisi', 'kecelakaan', 'pengemudi', 'sopir', 'kejadian', 'korban', 'bogor', 'kegiatan', 'tertabrak', 'langsung', 'anaknya', 'remaja', 'aksi']</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['meninggal', 'menyebut', 'mengaku', 'laut', 'siti', 'ditemukan', 'tenggelam', 'keluarga', 'polisi', 'korban', 'kerja', 'penumpang', 'bernama', 'tewas', 'kapal', 'jawa', 'jaya']</t>
+          <t>['mengaku', 'meninggal', 'penumpang', 'polisi', 'ditemukan', 'bernama', 'keluarga', 'korban', 'kapal', 'kerja', 'tenggelam', 'menyebut', 'siti']</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['menyebut', 'mengaku', 'insiden', 'kondisi', 'laut', 'warga', 'aksi', 'indonesia', 'and', 'memiliki', 'kecelakaan', 'langsung', 'pencarian', 'jakarta', 'kapal', 'lintas']</t>
+          <t>['mengaku', 'kecelakaan', 'memiliki', 'pencarian', 'jakarta', 'indonesia', 'lintas', 'kapal', 'warga', 'langsung', 'menyebut', 'kondisi', 'and', 'aksi']</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['menyebut', 'jenazah', 'langsung', 'ditemukan', 'korban', 'and', 'helikopter', 'pesawat', 'terkait', 'jakarta', 'kapal', 'petugas', 'kondisi', 'keluarga', 'meninggal_dunia', 'jatuh', 'meninggal', 'pencarian', 'kepolisian', 'tewas']</t>
+          <t>['meninggal', 'ditemukan', 'terkait', 'pesawat', 'keluarga', 'pencarian', 'jakarta', 'korban', 'tewas', 'kapal', 'jenazah', 'meninggal_dunia', 'langsung', 'kondisi', 'and', 'menyebut']</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>['luka', 'melaju_arah', 'mengalami_luka', 'jalur', 'arah', 'korban', 'diduga', 'kecelakaan', 'menabrak', 'jalan', 'melintas', 'kejadian']</t>
+          <t>['mengalami_luka', 'menabrak', 'diduga', 'kecelakaan', 'luka', 'kejadian', 'arah', 'korban', 'jalan', 'jalur']</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -8353,7 +8353,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>['warga', 'bandung', 'polisi', 'kecelakaan', 'hukum', 'pelaku', 'pengendara', 'wisata', 'jalan', 'terkait', 'kejadian', 'aksi', 'jawa']</t>
+          <t>['polisi', 'kecelakaan', 'terkait', 'kejadian', 'warga', 'jalan', 'pelaku', 'aksi']</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['penyidik', 'mengaku', 'mobil', 'ditemukan', 'bandung', 'remaja', 'uang', 'polisi', 'kecelakaan', 'memiliki', 'pria', 'petugas', 'kendaraan', 'tersangka', 'kejadian', 'aksi', 'dikemudikan', 'mengalami']</t>
+          <t>['mengaku', 'polisi', 'kendaraan', 'uang', 'ditemukan', 'memiliki', 'tersangka', 'kejadian', 'kecelakaan', 'remaja', 'aksi']</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>['pengendara', 'langsung', 'jalan', 'melintas', 'akibat', 'lintas', 'mobil', 'insiden', 'korban', 'kanan', 'dikemudikan', 'kecelakaan', 'kejadian', 'kondisi', 'keluarga', 'mengalami', 'sopir', 'warga', 'menabrak', 'jalur', 'selamat']</t>
+          <t>['mobil', 'rombongan', 'menabrak', 'kecelakaan', 'sopir', 'keluarga', 'kejadian', 'korban', 'jalan', 'warga', 'langsung', 'kondisi', 'rumah_sakit', 'jalur']</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['luka', 'sopir', 'rumah', 'arah', 'korban', 'diduga', 'kecelakaan', 'kendaraan', 'menabrak', 'jalan', 'pengemudi', 'jalur', 'kejadian', 'kanan', 'truk']</t>
+          <t>['truk', 'kendaraan', 'menabrak', 'diduga', 'kecelakaan', 'pengemudi', 'sopir', 'luka', 'kejadian', 'arah', 'korban', 'rumah', 'jalan', 'jalur']</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['mobil', 'anaknya', 'warga', 'indonesia', 'keluarga', 'kecelakaan', 'kerja', 'jakarta', 'jalan', 'aksi', 'kesehatan', 'jawa']</t>
+          <t>['mobil', 'kecelakaan', 'keluarga', 'jakarta', 'kesehatan', 'indonesia', 'warga', 'jalan', 'anaknya', 'aksi']</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['jatuh', 'perusahaan', 'pemerintah', 'rumah', 'jalur', 'keselamatan', 'memiliki', 'korban', 'pelaku', 'wisata', 'kerja', 'kecelakaan', 'terkait', 'jakarta', 'lintas']</t>
+          <t>['keselamatan', 'terkait', 'memiliki', 'jakarta', 'tol', 'korban', 'lintas', 'kerja', 'rumah', 'kecelakaan', 'pelaku', 'jalur']</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['jatuh', 'mobil', 'warga', 'arah', 'korban', 'diduga', 'truk', 'kecelakaan', 'menabrak', 'kendaraan', 'jalan', 'pengemudi', 'melintas', 'kejadian', 'akibat', 'jawa']</t>
+          <t>['truk', 'mobil', 'kendaraan', 'menabrak', 'diduga', 'kecelakaan', 'pengemudi', 'kejadian', 'arah', 'korban', 'warga', 'jalan']</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>['air', 'laut', 'tenggelam', 'keselamatan', 'motor', 'korban', 'penumpang', 'langsung', 'peristiwa', 'kejadian', 'kapal', 'mengalami']</t>
+          <t>['keselamatan', 'peristiwa', 'penumpang', 'kejadian', 'motor', 'korban', 'kapal', 'tenggelam', 'langsung']</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>['luka', 'meninggal', 'insiden', 'bandung', 'tkp', 'polisi', 'proyek', 'korban', 'kecelakaan', 'lokomotif', 'kereta', 'jalur', 'kejadian', 'jakarta', 'tewas', 'meninggal_dunia', 'mengalami']</t>
+          <t>['polisi', 'meninggal', 'kereta', 'jakarta', 'kejadian', 'luka', 'korban', 'tewas', 'kecelakaan', 'jalur']</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>['luka', 'jatuh', 'insiden', 'rumah', 'warga', 'mengalami_luka', 'korban', 'kerja', 'diduga', 'kecelakaan', 'bernama', 'kanan']</t>
+          <t>['mengalami_luka', 'diduga', 'bernama', 'luka', 'korban', 'warga', 'rumah', 'kecelakaan']</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>['mobil', 'jalur', 'wisata', 'kendaraan', 'sepeda_motor', 'kondisi', 'lintas']</t>
+          <t>['mobil', 'kendaraan', 'kondisi', 'lintas', 'sepeda_motor', 'jalur']</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -9058,7 +9058,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>['indonesia', 'hasya', 'pelaku', 'bogor', 'esbw', 'anaknya', 'mahasiswa', 'jakarta', 'proses', 'hukum', 'rumah', 'kecelakaan', 'tersangka', 'berinisial', 'keluarga', 'meninggal_dunia', 'meninggal', 'mengaku', 'polisi', 'tewas']</t>
+          <t>['mengaku', 'meninggal', 'polisi', 'tersangka', 'keluarga', 'jakarta', 'bogor', 'pelaku', 'indonesia', 'tewas', 'rumah', 'meninggal_dunia', 'kecelakaan', 'esbw', 'anaknya', 'hasya', 'mahasiswa']</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -9132,7 +9132,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>['selamat', 'kondisi', 'tenggelam', 'korban', 'motor', 'penumpang', 'petugas', 'menabrak', 'akibat', 'kejadian', 'jakarta', 'kapal', 'kesehatan', 'jawa', 'jaya']</t>
+          <t>['penumpang', 'menabrak', 'jakarta', 'kejadian', 'kesehatan', 'korban', 'kapal', 'tenggelam', 'motor', 'kondisi']</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>['saksi', 'arah', 'diduga', 'penumpang', 'pengemudi', 'peristiwa', 'kereta', 'melintas', 'akibat', 'mobil', 'anaknya', 'korban', 'api', 'kanan', 'kecelakaan', 'tertabrak', 'kejadian', 'keluarga', 'meninggal_dunia', 'sopir', 'warga', 'polisi', 'tewas']</t>
+          <t>['mobil', 'peristiwa', 'penumpang', 'diduga', 'pengemudi', 'sopir', 'keluarga', 'api', 'kereta', 'kejadian', 'arah', 'korban', 'tewas', 'warga', 'meninggal_dunia', 'kecelakaan', 'anaknya', 'tertabrak']</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['mengaku', 'sopir', 'korban', 'kecelakaan', 'hukum', 'tewas', 'kejadian', 'bogor', 'proses', 'truk']</t>
+          <t>['truk', 'mengaku', 'sopir', 'kejadian', 'korban', 'bogor', 'tewas', 'kecelakaan']</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['luka', 'meninggal', 'mengalami', 'korban', 'kecelakaan', 'pengendara', 'jalan', 'kejadian', 'titik', 'meninggal_dunia', 'lintas']</t>
+          <t>['titik', 'meninggal', 'kecelakaan', 'luka', 'kejadian', 'korban', 'lintas', 'meninggal_dunia', 'jalan']</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['jatuh', 'meninggal', 'pemerintah', 'kondisi', 'anaknya', 'korban', 'kecelakaan', 'peristiwa', 'terkait', 'kejadian', 'jakarta', 'akibat', 'meninggal_dunia']</t>
+          <t>['meninggal', 'peristiwa', 'terkait', 'jakarta', 'kejadian', 'korban', 'meninggal_dunia', 'kecelakaan', 'kondisi', 'anaknya']</t>
         </is>
       </c>
       <c r="F128" t="n">
